--- a/INF_4.5b(0.01-0.1)_0.01-0.1_.xlsx
+++ b/INF_4.5b(0.01-0.1)_0.01-0.1_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Networks" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +134,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -608,28 +601,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,118 +634,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,11 +1099,11 @@
   <sheetPr/>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="N113" sqref="N113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="6" width="12.625"/>
@@ -4513,7 +4506,7 @@
       <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="7" width="12.625"/>
@@ -4854,7 +4847,7 @@
       <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="7" width="12.625"/>
@@ -5195,7 +5188,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5211,7 +5204,7 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="7" width="12.625"/>
@@ -5552,7 +5545,7 @@
       <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="7" width="12.625"/>
@@ -5893,7 +5886,7 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="7" width="12.625"/>
@@ -6234,7 +6227,7 @@
       <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="7" width="12.625"/>
@@ -6575,7 +6568,7 @@
       <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="7" width="12.625"/>
@@ -6916,7 +6909,7 @@
       <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="6" width="12.625"/>
@@ -7258,7 +7251,7 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="7" width="12.625"/>
@@ -7599,7 +7592,7 @@
       <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="7" width="12.625"/>

--- a/INF_4.5b(0.01-0.1)_0.01-0.1_.xlsx
+++ b/INF_4.5b(0.01-0.1)_0.01-0.1_.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="18">
   <si>
     <t>DC</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>rcnn</t>
+  </si>
+  <si>
+    <t>f-e</t>
+  </si>
+  <si>
+    <t>prgc</t>
   </si>
   <si>
     <t>pre</t>
@@ -123,7 +129,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +140,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -616,16 +629,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,121 +644,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1097,19 +1114,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
+    <col min="1" max="1" width="34.7692307692308" customWidth="1"/>
     <col min="2" max="2" width="12.625"/>
-    <col min="6" max="6" width="12.625"/>
+    <col min="6" max="6" width="16.8269230769231" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.1826923076923" customWidth="1"/>
+    <col min="8" max="8" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,16 +1142,22 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0.0664581859669139</v>
@@ -1145,24 +1171,30 @@
       <c r="E2">
         <v>0.0446843126069595</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
+        <v>0.03204928693668</v>
+      </c>
+      <c r="G2">
+        <v>0.049164175698802</v>
+      </c>
+      <c r="H2">
         <v>0.086805019965773</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.0688287507130633</v>
       </c>
-      <c r="H2" t="str" cm="1">
-        <f t="array" ref="H2">INDEX($B$1:$F$1,MATCH(MAX(B2:F2),B2:F2,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I2" t="str" cm="1">
-        <f t="array" ref="I2">INDEX($F$1:$G$1,MATCH(MAX(F2:G2),F2:G2,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2">INDEX($B$1:$H$1,MATCH(MAX(B2:H2),B2:H2,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2">INDEX($H$1:$I$1,MATCH(MAX(H2:I2),H2:I2,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.422017699115044</v>
@@ -1176,24 +1208,30 @@
       <c r="E3">
         <v>0.432884955752212</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
+        <v>0.424386852085967</v>
+      </c>
+      <c r="G3">
+        <v>0.422897597977244</v>
+      </c>
+      <c r="H3">
         <v>0.424685208596713</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.363537294563843</v>
       </c>
-      <c r="H3" t="str" cm="1">
-        <f t="array" ref="H3">INDEX($B$1:$F$1,MATCH(MAX(B3:F3),B3:F3,0))</f>
+      <c r="J3" t="str" cm="1">
+        <f t="array" ref="J3">INDEX($B$1:$H$1,MATCH(MAX(B3:H3),B3:H3,0))</f>
         <v>rcnn</v>
       </c>
-      <c r="I3" t="str" cm="1">
-        <f t="array" ref="I3">INDEX($F$1:$G$1,MATCH(MAX(F3:G3),F3:G3,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" t="str" cm="1">
+        <f t="array" ref="K3">INDEX($H$1:$I$1,MATCH(MAX(H3:I3),H3:I3,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.0585429010313803</v>
@@ -1207,24 +1245,30 @@
       <c r="E4">
         <v>0.0783989466754444</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
+        <v>0.0803155584814571</v>
+      </c>
+      <c r="G4">
+        <v>0.0887864823348694</v>
+      </c>
+      <c r="H4">
         <v>0.0883884134298881</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.0870730743910467</v>
       </c>
-      <c r="H4" t="str" cm="1">
-        <f t="array" ref="H4">INDEX($B$1:$F$1,MATCH(MAX(B4:F4),B4:F4,0))</f>
+      <c r="J4" t="str" cm="1">
+        <f t="array" ref="J4">INDEX($B$1:$H$1,MATCH(MAX(B4:H4),B4:H4,0))</f>
         <v>Kshell</v>
       </c>
-      <c r="I4" t="str" cm="1">
-        <f t="array" ref="I4">INDEX($F$1:$G$1,MATCH(MAX(F4:G4),F4:G4,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" t="str" cm="1">
+        <f t="array" ref="K4">INDEX($H$1:$I$1,MATCH(MAX(H4:I4),H4:I4,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.42186350148368</v>
@@ -1238,24 +1282,30 @@
       <c r="E5">
         <v>0.421091988130564</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
+        <v>0.176302670623145</v>
+      </c>
+      <c r="G5">
+        <v>0.176189910979229</v>
+      </c>
+      <c r="H5">
         <v>0.17620178041543</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.171014836795252</v>
       </c>
-      <c r="H5" t="str" cm="1">
-        <f t="array" ref="H5">INDEX($B$1:$F$1,MATCH(MAX(B5:F5),B5:F5,0))</f>
+      <c r="J5" t="str" cm="1">
+        <f t="array" ref="J5">INDEX($B$1:$H$1,MATCH(MAX(B5:H5),B5:H5,0))</f>
         <v>DC</v>
       </c>
-      <c r="I5" t="str" cm="1">
-        <f t="array" ref="I5">INDEX($F$1:$G$1,MATCH(MAX(F5:G5),F5:G5,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" t="str" cm="1">
+        <f t="array" ref="K5">INDEX($H$1:$I$1,MATCH(MAX(H5:I5),H5:I5,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.489991071428572</v>
@@ -1269,24 +1319,30 @@
       <c r="E6">
         <v>0.402803571428571</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
+        <v>0.369366071428571</v>
+      </c>
+      <c r="G6">
+        <v>0.372366071428571</v>
+      </c>
+      <c r="H6">
         <v>0.495785714285714</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.439723214285714</v>
       </c>
-      <c r="H6" t="str" cm="1">
-        <f t="array" ref="H6">INDEX($B$1:$F$1,MATCH(MAX(B6:F6),B6:F6,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I6" t="str" cm="1">
-        <f t="array" ref="I6">INDEX($F$1:$G$1,MATCH(MAX(F6:G6),F6:G6,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="str" cm="1">
+        <f t="array" ref="J6">INDEX($B$1:$H$1,MATCH(MAX(B6:H6),B6:H6,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K6" t="str" cm="1">
+        <f t="array" ref="K6">INDEX($H$1:$I$1,MATCH(MAX(H6:I6),H6:I6,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0.159453634085213</v>
@@ -1300,24 +1356,30 @@
       <c r="E7">
         <v>0.165595655806182</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
+        <v>0.121183792815372</v>
+      </c>
+      <c r="G7">
+        <v>0.175627736006683</v>
+      </c>
+      <c r="H7">
         <v>0.211506934001671</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.16716925647452</v>
       </c>
-      <c r="H7" t="str" cm="1">
-        <f t="array" ref="H7">INDEX($B$1:$F$1,MATCH(MAX(B7:F7),B7:F7,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I7" t="str" cm="1">
-        <f t="array" ref="I7">INDEX($F$1:$G$1,MATCH(MAX(F7:G7),F7:G7,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="str" cm="1">
+        <f t="array" ref="J7">INDEX($B$1:$H$1,MATCH(MAX(B7:H7),B7:H7,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K7" t="str" cm="1">
+        <f t="array" ref="K7">INDEX($H$1:$I$1,MATCH(MAX(H7:I7),H7:I7,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0.183193798449612</v>
@@ -1331,24 +1393,30 @@
       <c r="E8">
         <v>0.182217054263566</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
+        <v>0.0655348837209302</v>
+      </c>
+      <c r="G8">
+        <v>0.180697674418605</v>
+      </c>
+      <c r="H8">
         <v>0.181410852713178</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.16462015503876</v>
       </c>
-      <c r="H8" t="str" cm="1">
-        <f t="array" ref="H8">INDEX($B$1:$F$1,MATCH(MAX(B8:F8),B8:F8,0))</f>
+      <c r="J8" t="str" cm="1">
+        <f t="array" ref="J8">INDEX($B$1:$H$1,MATCH(MAX(B8:H8),B8:H8,0))</f>
         <v>DC</v>
       </c>
-      <c r="I8" t="str" cm="1">
-        <f t="array" ref="I8">INDEX($F$1:$G$1,MATCH(MAX(F8:G8),F8:G8,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" t="str" cm="1">
+        <f t="array" ref="K8">INDEX($H$1:$I$1,MATCH(MAX(H8:I8),H8:I8,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0.0677418273260687</v>
@@ -1362,24 +1430,30 @@
       <c r="E9">
         <v>0.0635389773679799</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
+        <v>0.0324090528080469</v>
+      </c>
+      <c r="G9">
+        <v>0.0248784576697401</v>
+      </c>
+      <c r="H9">
         <v>0.0736663872590109</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.0625314333612741</v>
       </c>
-      <c r="H9" t="str" cm="1">
-        <f t="array" ref="H9">INDEX($B$1:$F$1,MATCH(MAX(B9:F9),B9:F9,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I9" t="str" cm="1">
-        <f t="array" ref="I9">INDEX($F$1:$G$1,MATCH(MAX(F9:G9),F9:G9,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="str" cm="1">
+        <f t="array" ref="J9">INDEX($B$1:$H$1,MATCH(MAX(B9:H9),B9:H9,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K9" t="str" cm="1">
+        <f t="array" ref="K9">INDEX($H$1:$I$1,MATCH(MAX(H9:I9),H9:I9,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0.573698113207547</v>
@@ -1393,24 +1467,30 @@
       <c r="E10">
         <v>0.580745283018868</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
+        <v>0.569537735849057</v>
+      </c>
+      <c r="G10">
+        <v>0.570405660377358</v>
+      </c>
+      <c r="H10">
         <v>0.57727358490566</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.497990566037736</v>
       </c>
-      <c r="H10" t="str" cm="1">
-        <f t="array" ref="H10">INDEX($B$1:$F$1,MATCH(MAX(B10:F10),B10:F10,0))</f>
+      <c r="J10" t="str" cm="1">
+        <f t="array" ref="J10">INDEX($B$1:$H$1,MATCH(MAX(B10:H10),B10:H10,0))</f>
         <v>rcnn</v>
       </c>
-      <c r="I10" t="str" cm="1">
-        <f t="array" ref="I10">INDEX($F$1:$G$1,MATCH(MAX(F10:G10),F10:G10,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" t="str" cm="1">
+        <f t="array" ref="K10">INDEX($H$1:$I$1,MATCH(MAX(H10:I10),H10:I10,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0.0300085810603739</v>
@@ -1424,22 +1504,28 @@
       <c r="E11">
         <v>0.024565124118909</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
+        <v>0.059207477781183</v>
+      </c>
+      <c r="G11">
+        <v>0.0610750842782715</v>
+      </c>
+      <c r="H11">
         <v>0.0717756665645112</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.079284707324548</v>
       </c>
-      <c r="H11" t="str" cm="1">
-        <f t="array" ref="H11">INDEX($B$1:$F$1,MATCH(MAX(B11:F11),B11:F11,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I11" t="str" cm="1">
-        <f t="array" ref="I11">INDEX($F$1:$G$1,MATCH(MAX(F11:G11),F11:G11,0))</f>
+      <c r="J11" t="str" cm="1">
+        <f t="array" ref="J11">INDEX($B$1:$H$1,MATCH(MAX(B11:H11),B11:H11,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K11" t="str" cm="1">
+        <f t="array" ref="K11">INDEX($H$1:$I$1,MATCH(MAX(H11:I11),H11:I11,0))</f>
         <v>sage</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:11">
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1452,24 +1538,30 @@
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" t="e" cm="1">
-        <f t="array" ref="H12">INDEX($B$1:$F$1,MATCH(MAX(B12:F12),B12:F12,0))</f>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="e" cm="1">
+        <f t="array" ref="J12">INDEX($B$1:$H$1,MATCH(MAX(B12:H12),B12:H12,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" t="e" cm="1">
-        <f t="array" ref="I12">INDEX($F$1:$G$1,MATCH(MAX(F12:G12),F12:G12,0))</f>
+      <c r="K12" t="e" cm="1">
+        <f t="array" ref="K12">INDEX($H$1:$I$1,MATCH(MAX(H12:I12),H12:I12,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0.110760752994866</v>
@@ -1483,24 +1575,30 @@
       <c r="E13">
         <v>0.0867422703936109</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
+        <v>0.042606731317741</v>
+      </c>
+      <c r="G13">
+        <v>0.0633699942954934</v>
+      </c>
+      <c r="H13">
         <v>0.129337136337707</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.0953891614375357</v>
       </c>
-      <c r="H13" t="str" cm="1">
-        <f t="array" ref="H13">INDEX($B$1:$F$1,MATCH(MAX(B13:F13),B13:F13,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I13" t="str" cm="1">
-        <f t="array" ref="I13">INDEX($F$1:$G$1,MATCH(MAX(F13:G13),F13:G13,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="str" cm="1">
+        <f t="array" ref="J13">INDEX($B$1:$H$1,MATCH(MAX(B13:H13),B13:H13,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K13" t="str" cm="1">
+        <f t="array" ref="K13">INDEX($H$1:$I$1,MATCH(MAX(H13:I13),H13:I13,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>0.496308470290771</v>
@@ -1514,24 +1612,30 @@
       <c r="E14">
         <v>0.496197218710493</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
+        <v>0.487737041719343</v>
+      </c>
+      <c r="G14">
+        <v>0.4888798988622</v>
+      </c>
+      <c r="H14">
         <v>0.499001264222503</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.440136536030341</v>
       </c>
-      <c r="H14" t="str" cm="1">
-        <f t="array" ref="H14">INDEX($B$1:$F$1,MATCH(MAX(B14:F14),B14:F14,0))</f>
+      <c r="J14" t="str" cm="1">
+        <f t="array" ref="J14">INDEX($B$1:$H$1,MATCH(MAX(B14:H14),B14:H14,0))</f>
         <v>GLSTM</v>
       </c>
-      <c r="I14" t="str" cm="1">
-        <f t="array" ref="I14">INDEX($F$1:$G$1,MATCH(MAX(F14:G14),F14:G14,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" t="str" cm="1">
+        <f t="array" ref="K14">INDEX($H$1:$I$1,MATCH(MAX(H14:I14),H14:I14,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>0.117426377002414</v>
@@ -1545,24 +1649,30 @@
       <c r="E15">
         <v>0.102508667983322</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
+        <v>0.0965771340794382</v>
+      </c>
+      <c r="G15">
+        <v>0.128860653938995</v>
+      </c>
+      <c r="H15">
         <v>0.147625192012289</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>0.119859117840685</v>
       </c>
-      <c r="H15" t="str" cm="1">
-        <f t="array" ref="H15">INDEX($B$1:$F$1,MATCH(MAX(B15:F15),B15:F15,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I15" t="str" cm="1">
-        <f t="array" ref="I15">INDEX($F$1:$G$1,MATCH(MAX(F15:G15),F15:G15,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="str" cm="1">
+        <f t="array" ref="J15">INDEX($B$1:$H$1,MATCH(MAX(B15:H15),B15:H15,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K15" t="str" cm="1">
+        <f t="array" ref="K15">INDEX($H$1:$I$1,MATCH(MAX(H15:I15),H15:I15,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>0.502026706231454</v>
@@ -1576,24 +1686,30 @@
       <c r="E16">
         <v>0.536750741839763</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
+        <v>0.176952522255193</v>
+      </c>
+      <c r="G16">
+        <v>0.176486646884273</v>
+      </c>
+      <c r="H16">
         <v>0.501593471810089</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.472842729970326</v>
       </c>
-      <c r="H16" t="str" cm="1">
-        <f t="array" ref="H16">INDEX($B$1:$F$1,MATCH(MAX(B16:F16),B16:F16,0))</f>
+      <c r="J16" t="str" cm="1">
+        <f t="array" ref="J16">INDEX($B$1:$H$1,MATCH(MAX(B16:H16),B16:H16,0))</f>
         <v>rcnn</v>
       </c>
-      <c r="I16" t="str" cm="1">
-        <f t="array" ref="I16">INDEX($F$1:$G$1,MATCH(MAX(F16:G16),F16:G16,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" t="str" cm="1">
+        <f t="array" ref="K16">INDEX($H$1:$I$1,MATCH(MAX(H16:I16),H16:I16,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>0.497294642857143</v>
@@ -1607,24 +1723,30 @@
       <c r="E17">
         <v>0.402741071428571</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
+        <v>0.372321428571429</v>
+      </c>
+      <c r="G17">
+        <v>0.3759375</v>
+      </c>
+      <c r="H17">
         <v>0.495196428571429</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>0.441383928571429</v>
       </c>
-      <c r="H17" t="str" cm="1">
-        <f t="array" ref="H17">INDEX($B$1:$F$1,MATCH(MAX(B17:F17),B17:F17,0))</f>
+      <c r="J17" t="str" cm="1">
+        <f t="array" ref="J17">INDEX($B$1:$H$1,MATCH(MAX(B17:H17),B17:H17,0))</f>
         <v>DC</v>
       </c>
-      <c r="I17" t="str" cm="1">
-        <f t="array" ref="I17">INDEX($F$1:$G$1,MATCH(MAX(F17:G17),F17:G17,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" t="str" cm="1">
+        <f t="array" ref="K17">INDEX($H$1:$I$1,MATCH(MAX(H17:I17),H17:I17,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>0.229417878028404</v>
@@ -1638,24 +1760,30 @@
       <c r="E18">
         <v>0.216115455304929</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
+        <v>0.168434586466165</v>
+      </c>
+      <c r="G18">
+        <v>0.216626065162907</v>
+      </c>
+      <c r="H18">
         <v>0.257964411027569</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.211886549707602</v>
       </c>
-      <c r="H18" t="str" cm="1">
-        <f t="array" ref="H18">INDEX($B$1:$F$1,MATCH(MAX(B18:F18),B18:F18,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I18" t="str" cm="1">
-        <f t="array" ref="I18">INDEX($F$1:$G$1,MATCH(MAX(F18:G18),F18:G18,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="str" cm="1">
+        <f t="array" ref="J18">INDEX($B$1:$H$1,MATCH(MAX(B18:H18),B18:H18,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K18" t="str" cm="1">
+        <f t="array" ref="K18">INDEX($H$1:$I$1,MATCH(MAX(H18:I18),H18:I18,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>0.182031007751938</v>
@@ -1669,24 +1797,30 @@
       <c r="E19">
         <v>0.181100775193798</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
+        <v>0.062</v>
+      </c>
+      <c r="G19">
+        <v>0.182</v>
+      </c>
+      <c r="H19">
         <v>0.184</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.166759689922481</v>
       </c>
-      <c r="H19" t="str" cm="1">
-        <f t="array" ref="H19">INDEX($B$1:$F$1,MATCH(MAX(B19:F19),B19:F19,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I19" t="str" cm="1">
-        <f t="array" ref="I19">INDEX($F$1:$G$1,MATCH(MAX(F19:G19),F19:G19,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="str" cm="1">
+        <f t="array" ref="J19">INDEX($B$1:$H$1,MATCH(MAX(B19:H19),B19:H19,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K19" t="str" cm="1">
+        <f t="array" ref="K19">INDEX($H$1:$I$1,MATCH(MAX(H19:I19),H19:I19,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>0.088848281642917</v>
@@ -1700,24 +1834,30 @@
       <c r="E20">
         <v>0.0904962279966471</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
+        <v>0.0437082984073764</v>
+      </c>
+      <c r="G20">
+        <v>0.0696596814752724</v>
+      </c>
+      <c r="H20">
         <v>0.092056999161777</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>0.0898642078792959</v>
       </c>
-      <c r="H20" t="str" cm="1">
-        <f t="array" ref="H20">INDEX($B$1:$F$1,MATCH(MAX(B20:F20),B20:F20,0))</f>
+      <c r="J20" t="str" cm="1">
+        <f t="array" ref="J20">INDEX($B$1:$H$1,MATCH(MAX(B20:H20),B20:H20,0))</f>
         <v>Kshell</v>
       </c>
-      <c r="I20" t="str" cm="1">
-        <f t="array" ref="I20">INDEX($F$1:$G$1,MATCH(MAX(F20:G20),F20:G20,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" t="str" cm="1">
+        <f t="array" ref="K20">INDEX($H$1:$I$1,MATCH(MAX(H20:I20),H20:I20,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>0.574537735849057</v>
@@ -1731,24 +1871,30 @@
       <c r="E21">
         <v>0.578650943396226</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
+        <v>0.575877358490566</v>
+      </c>
+      <c r="G21">
+        <v>0.571745283018868</v>
+      </c>
+      <c r="H21">
         <v>0.579575471698113</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>0.493745283018868</v>
       </c>
-      <c r="H21" t="str" cm="1">
-        <f t="array" ref="H21">INDEX($B$1:$F$1,MATCH(MAX(B21:F21),B21:F21,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I21" t="str" cm="1">
-        <f t="array" ref="I21">INDEX($F$1:$G$1,MATCH(MAX(F21:G21),F21:G21,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="str" cm="1">
+        <f t="array" ref="J21">INDEX($B$1:$H$1,MATCH(MAX(B21:H21),B21:H21,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K21" t="str" cm="1">
+        <f t="array" ref="K21">INDEX($H$1:$I$1,MATCH(MAX(H21:I21),H21:I21,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>0.0833643885994483</v>
@@ -1762,22 +1908,28 @@
       <c r="E22">
         <v>0.0540459699662887</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
+        <v>0.0769077536009807</v>
+      </c>
+      <c r="G22">
+        <v>0.0863843089181735</v>
+      </c>
+      <c r="H22">
         <v>0.100912657064052</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>0.099268158136684</v>
       </c>
-      <c r="H22" t="str" cm="1">
-        <f t="array" ref="H22">INDEX($B$1:$F$1,MATCH(MAX(B22:F22),B22:F22,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I22" t="str" cm="1">
-        <f t="array" ref="I22">INDEX($F$1:$G$1,MATCH(MAX(F22:G22),F22:G22,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="J22" t="str" cm="1">
+        <f t="array" ref="J22">INDEX($B$1:$H$1,MATCH(MAX(B22:H22),B22:H22,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K22" t="str" cm="1">
+        <f t="array" ref="K22">INDEX($H$1:$I$1,MATCH(MAX(H22:I22),H22:I22,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,24 +1942,30 @@
       <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H23" t="e" cm="1">
-        <f t="array" ref="H23">INDEX($B$1:$F$1,MATCH(MAX(B23:F23),B23:F23,0))</f>
+      <c r="H23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="e" cm="1">
+        <f t="array" ref="J23">INDEX($B$1:$H$1,MATCH(MAX(B23:H23),B23:H23,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I23" t="e" cm="1">
-        <f t="array" ref="I23">INDEX($F$1:$G$1,MATCH(MAX(F23:G23),F23:G23,0))</f>
+      <c r="K23" t="e" cm="1">
+        <f t="array" ref="K23">INDEX($H$1:$I$1,MATCH(MAX(H23:I23),H23:I23,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>0.139621677124929</v>
@@ -1821,24 +1979,30 @@
       <c r="E24">
         <v>0.11127484312607</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
+        <v>0.0554359383913291</v>
+      </c>
+      <c r="G24">
+        <v>0.0737889332572732</v>
+      </c>
+      <c r="H24">
         <v>0.150355733029093</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>0.125355390758699</v>
       </c>
-      <c r="H24" t="str" cm="1">
-        <f t="array" ref="H24">INDEX($B$1:$F$1,MATCH(MAX(B24:F24),B24:F24,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I24" t="str" cm="1">
-        <f t="array" ref="I24">INDEX($F$1:$G$1,MATCH(MAX(F24:G24),F24:G24,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="str" cm="1">
+        <f t="array" ref="J24">INDEX($B$1:$H$1,MATCH(MAX(B24:H24),B24:H24,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K24" t="str" cm="1">
+        <f t="array" ref="K24">INDEX($H$1:$I$1,MATCH(MAX(H24:I24),H24:I24,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>0.529595448798989</v>
@@ -1852,24 +2016,30 @@
       <c r="E25">
         <v>0.525211125158028</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
+        <v>0.525094816687737</v>
+      </c>
+      <c r="G25">
+        <v>0.528867256637168</v>
+      </c>
+      <c r="H25">
         <v>0.525992414664981</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>0.472409608091024</v>
       </c>
-      <c r="H25" t="str" cm="1">
-        <f t="array" ref="H25">INDEX($B$1:$F$1,MATCH(MAX(B25:F25),B25:F25,0))</f>
+      <c r="J25" t="str" cm="1">
+        <f t="array" ref="J25">INDEX($B$1:$H$1,MATCH(MAX(B25:H25),B25:H25,0))</f>
         <v>GLSTM</v>
       </c>
-      <c r="I25" t="str" cm="1">
-        <f t="array" ref="I25">INDEX($F$1:$G$1,MATCH(MAX(F25:G25),F25:G25,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="K25" t="str" cm="1">
+        <f t="array" ref="K25">INDEX($H$1:$I$1,MATCH(MAX(H25:I25),H25:I25,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>0.163310511301295</v>
@@ -1883,24 +2053,30 @@
       <c r="E26">
         <v>0.120543778801843</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
+        <v>0.11966337502743</v>
+      </c>
+      <c r="G26">
+        <v>0.14840333552776</v>
+      </c>
+      <c r="H26">
         <v>0.17605793285056</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>0.156913759052008</v>
       </c>
-      <c r="H26" t="str" cm="1">
-        <f t="array" ref="H26">INDEX($B$1:$F$1,MATCH(MAX(B26:F26),B26:F26,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I26" t="str" cm="1">
-        <f t="array" ref="I26">INDEX($F$1:$G$1,MATCH(MAX(F26:G26),F26:G26,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="str" cm="1">
+        <f t="array" ref="J26">INDEX($B$1:$H$1,MATCH(MAX(B26:H26),B26:H26,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K26" t="str" cm="1">
+        <f t="array" ref="K26">INDEX($H$1:$I$1,MATCH(MAX(H26:I26),H26:I26,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>0.52186943620178</v>
@@ -1914,24 +2090,30 @@
       <c r="E27">
         <v>0.608367952522255</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
+        <v>0.186430267062314</v>
+      </c>
+      <c r="G27">
+        <v>0.186284866468843</v>
+      </c>
+      <c r="H27">
         <v>0.596940652818991</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.561910979228487</v>
       </c>
-      <c r="H27" t="str" cm="1">
-        <f t="array" ref="H27">INDEX($B$1:$F$1,MATCH(MAX(B27:F27),B27:F27,0))</f>
+      <c r="J27" t="str" cm="1">
+        <f t="array" ref="J27">INDEX($B$1:$H$1,MATCH(MAX(B27:H27),B27:H27,0))</f>
         <v>rcnn</v>
       </c>
-      <c r="I27" t="str" cm="1">
-        <f t="array" ref="I27">INDEX($F$1:$G$1,MATCH(MAX(F27:G27),F27:G27,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" t="str" cm="1">
+        <f t="array" ref="K27">INDEX($H$1:$I$1,MATCH(MAX(H27:I27),H27:I27,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>0.490142857142857</v>
@@ -1945,24 +2127,30 @@
       <c r="E28">
         <v>0.404276785714286</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
+        <v>0.374892857142857</v>
+      </c>
+      <c r="G28">
+        <v>0.374883928571429</v>
+      </c>
+      <c r="H28">
         <v>0.494928571428571</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>0.442035714285714</v>
       </c>
-      <c r="H28" t="str" cm="1">
-        <f t="array" ref="H28">INDEX($B$1:$F$1,MATCH(MAX(B28:F28),B28:F28,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I28" t="str" cm="1">
-        <f t="array" ref="I28">INDEX($F$1:$G$1,MATCH(MAX(F28:G28),F28:G28,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="str" cm="1">
+        <f t="array" ref="J28">INDEX($B$1:$H$1,MATCH(MAX(B28:H28),B28:H28,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K28" t="str" cm="1">
+        <f t="array" ref="K28">INDEX($H$1:$I$1,MATCH(MAX(H28:I28),H28:I28,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>0.25930559732665</v>
@@ -1976,24 +2164,30 @@
       <c r="E29">
         <v>0.245106599832916</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
+        <v>0.191656474519632</v>
+      </c>
+      <c r="G29">
+        <v>0.243693567251462</v>
+      </c>
+      <c r="H29">
         <v>0.283763241436926</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.246198830409357</v>
       </c>
-      <c r="H29" t="str" cm="1">
-        <f t="array" ref="H29">INDEX($B$1:$F$1,MATCH(MAX(B29:F29),B29:F29,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I29" t="str" cm="1">
-        <f t="array" ref="I29">INDEX($F$1:$G$1,MATCH(MAX(F29:G29),F29:G29,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" t="str" cm="1">
+        <f t="array" ref="J29">INDEX($B$1:$H$1,MATCH(MAX(B29:H29),B29:H29,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K29" t="str" cm="1">
+        <f t="array" ref="K29">INDEX($H$1:$I$1,MATCH(MAX(H29:I29),H29:I29,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>0.185891472868217</v>
@@ -2007,24 +2201,30 @@
       <c r="E30">
         <v>0.189410852713178</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
+        <v>0.0796899224806202</v>
+      </c>
+      <c r="G30">
+        <v>0.181922480620155</v>
+      </c>
+      <c r="H30">
         <v>0.187395348837209</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>0.174604651162791</v>
       </c>
-      <c r="H30" t="str" cm="1">
-        <f t="array" ref="H30">INDEX($B$1:$F$1,MATCH(MAX(B30:F30),B30:F30,0))</f>
+      <c r="J30" t="str" cm="1">
+        <f t="array" ref="J30">INDEX($B$1:$H$1,MATCH(MAX(B30:H30),B30:H30,0))</f>
         <v>rcnn</v>
       </c>
-      <c r="I30" t="str" cm="1">
-        <f t="array" ref="I30">INDEX($F$1:$G$1,MATCH(MAX(F30:G30),F30:G30,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30" t="str" cm="1">
+        <f t="array" ref="K30">INDEX($H$1:$I$1,MATCH(MAX(H30:I30),H30:I30,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>0.0968365465213747</v>
@@ -2038,24 +2238,30 @@
       <c r="E31">
         <v>0.0998826487845767</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
+        <v>0.0513931265716681</v>
+      </c>
+      <c r="G31">
+        <v>0.076162615255658</v>
+      </c>
+      <c r="H31">
         <v>0.102719195305951</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.0981609388097234</v>
       </c>
-      <c r="H31" t="str" cm="1">
-        <f t="array" ref="H31">INDEX($B$1:$F$1,MATCH(MAX(B31:F31),B31:F31,0))</f>
+      <c r="J31" t="str" cm="1">
+        <f t="array" ref="J31">INDEX($B$1:$H$1,MATCH(MAX(B31:H31),B31:H31,0))</f>
         <v>Kshell</v>
       </c>
-      <c r="I31" t="str" cm="1">
-        <f t="array" ref="I31">INDEX($F$1:$G$1,MATCH(MAX(F31:G31),F31:G31,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="K31" t="str" cm="1">
+        <f t="array" ref="K31">INDEX($H$1:$I$1,MATCH(MAX(H31:I31),H31:I31,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>0.66261320754717</v>
@@ -2069,24 +2275,30 @@
       <c r="E32">
         <v>0.680933962264151</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
+        <v>0.667735849056604</v>
+      </c>
+      <c r="G32">
+        <v>0.660424528301887</v>
+      </c>
+      <c r="H32">
         <v>0.670377358490566</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>0.618943396226415</v>
       </c>
-      <c r="H32" t="str" cm="1">
-        <f t="array" ref="H32">INDEX($B$1:$F$1,MATCH(MAX(B32:F32),B32:F32,0))</f>
+      <c r="J32" t="str" cm="1">
+        <f t="array" ref="J32">INDEX($B$1:$H$1,MATCH(MAX(B32:H32),B32:H32,0))</f>
         <v>rcnn</v>
       </c>
-      <c r="I32" t="str" cm="1">
-        <f t="array" ref="I32">INDEX($F$1:$G$1,MATCH(MAX(F32:G32),F32:G32,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K32" t="str" cm="1">
+        <f t="array" ref="K32">INDEX($H$1:$I$1,MATCH(MAX(H32:I32),H32:I32,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0.0916671774440699</v>
@@ -2100,22 +2312,28 @@
       <c r="E33">
         <v>0.0662911431198284</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
+        <v>0.0894606190622127</v>
+      </c>
+      <c r="G33">
+        <v>0.110334661354582</v>
+      </c>
+      <c r="H33">
         <v>0.122747165185412</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>0.117929512718357</v>
       </c>
-      <c r="H33" t="str" cm="1">
-        <f t="array" ref="H33">INDEX($B$1:$F$1,MATCH(MAX(B33:F33),B33:F33,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I33" t="str" cm="1">
-        <f t="array" ref="I33">INDEX($F$1:$G$1,MATCH(MAX(F33:G33),F33:G33,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+      <c r="J33" t="str" cm="1">
+        <f t="array" ref="J33">INDEX($B$1:$H$1,MATCH(MAX(B33:H33),B33:H33,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K33" t="str" cm="1">
+        <f t="array" ref="K33">INDEX($H$1:$I$1,MATCH(MAX(H33:I33),H33:I33,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -2128,24 +2346,30 @@
       <c r="E34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H34" t="e" cm="1">
-        <f t="array" ref="H34">INDEX($B$1:$F$1,MATCH(MAX(B34:F34),B34:F34,0))</f>
+      <c r="H34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="e" cm="1">
+        <f t="array" ref="J34">INDEX($B$1:$H$1,MATCH(MAX(B34:H34),B34:H34,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I34" t="e" cm="1">
-        <f t="array" ref="I34">INDEX($F$1:$G$1,MATCH(MAX(F34:G34),F34:G34,0))</f>
+      <c r="K34" t="e" cm="1">
+        <f t="array" ref="K34">INDEX($H$1:$I$1,MATCH(MAX(H34:I34),H34:I34,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B35">
         <v>0.157616428978893</v>
@@ -2159,24 +2383,30 @@
       <c r="E35">
         <v>0.134670393610953</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
+        <v>0.0773599543639475</v>
+      </c>
+      <c r="G35">
+        <v>0.0852355961209355</v>
+      </c>
+      <c r="H35">
         <v>0.168016657159156</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>0.148962692527096</v>
       </c>
-      <c r="H35" t="str" cm="1">
-        <f t="array" ref="H35">INDEX($B$1:$F$1,MATCH(MAX(B35:F35),B35:F35,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I35" t="str" cm="1">
-        <f t="array" ref="I35">INDEX($F$1:$G$1,MATCH(MAX(F35:G35),F35:G35,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" t="str" cm="1">
+        <f t="array" ref="J35">INDEX($B$1:$H$1,MATCH(MAX(B35:H35),B35:H35,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K35" t="str" cm="1">
+        <f t="array" ref="K35">INDEX($H$1:$I$1,MATCH(MAX(H35:I35),H35:I35,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0.570670037926675</v>
@@ -2190,24 +2420,30 @@
       <c r="E36">
         <v>0.551327433628319</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
+        <v>0.56982806573957</v>
+      </c>
+      <c r="G36">
+        <v>0.566303413400759</v>
+      </c>
+      <c r="H36">
         <v>0.567610619469027</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>0.523979772439949</v>
       </c>
-      <c r="H36" t="str" cm="1">
-        <f t="array" ref="H36">INDEX($B$1:$F$1,MATCH(MAX(B36:F36),B36:F36,0))</f>
+      <c r="J36" t="str" cm="1">
+        <f t="array" ref="J36">INDEX($B$1:$H$1,MATCH(MAX(B36:H36),B36:H36,0))</f>
         <v>Kshell</v>
       </c>
-      <c r="I36" t="str" cm="1">
-        <f t="array" ref="I36">INDEX($F$1:$G$1,MATCH(MAX(F36:G36),F36:G36,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="K36" t="str" cm="1">
+        <f t="array" ref="K36">INDEX($H$1:$I$1,MATCH(MAX(H36:I36),H36:I36,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>0.187236778582401</v>
@@ -2221,24 +2457,30 @@
       <c r="E37">
         <v>0.135348255431205</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
+        <v>0.129666008338819</v>
+      </c>
+      <c r="G37">
+        <v>0.158478823787579</v>
+      </c>
+      <c r="H37">
         <v>0.201101163045864</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>0.183567698046961</v>
       </c>
-      <c r="H37" t="str" cm="1">
-        <f t="array" ref="H37">INDEX($B$1:$F$1,MATCH(MAX(B37:F37),B37:F37,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I37" t="str" cm="1">
-        <f t="array" ref="I37">INDEX($F$1:$G$1,MATCH(MAX(F37:G37),F37:G37,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="str" cm="1">
+        <f t="array" ref="J37">INDEX($B$1:$H$1,MATCH(MAX(B37:H37),B37:H37,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K37" t="str" cm="1">
+        <f t="array" ref="K37">INDEX($H$1:$I$1,MATCH(MAX(H37:I37),H37:I37,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>0.61559940652819</v>
@@ -2252,24 +2494,30 @@
       <c r="E38">
         <v>0.631439169139466</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
+        <v>0.186706231454006</v>
+      </c>
+      <c r="G38">
+        <v>0.186724035608309</v>
+      </c>
+      <c r="H38">
         <v>0.633813056379822</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0.596970326409496</v>
       </c>
-      <c r="H38" t="str" cm="1">
-        <f t="array" ref="H38">INDEX($B$1:$F$1,MATCH(MAX(B38:F38),B38:F38,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I38" t="str" cm="1">
-        <f t="array" ref="I38">INDEX($F$1:$G$1,MATCH(MAX(F38:G38),F38:G38,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="str" cm="1">
+        <f t="array" ref="J38">INDEX($B$1:$H$1,MATCH(MAX(B38:H38),B38:H38,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K38" t="str" cm="1">
+        <f t="array" ref="K38">INDEX($H$1:$I$1,MATCH(MAX(H38:I38),H38:I38,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>0.587446428571429</v>
@@ -2283,24 +2531,30 @@
       <c r="E39">
         <v>0.448223214285714</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
+        <v>0.412875</v>
+      </c>
+      <c r="G39">
+        <v>0.413464285714286</v>
+      </c>
+      <c r="H39">
         <v>0.594776785714286</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>0.54725</v>
       </c>
-      <c r="H39" t="str" cm="1">
-        <f t="array" ref="H39">INDEX($B$1:$F$1,MATCH(MAX(B39:F39),B39:F39,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I39" t="str" cm="1">
-        <f t="array" ref="I39">INDEX($F$1:$G$1,MATCH(MAX(F39:G39),F39:G39,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="str" cm="1">
+        <f t="array" ref="J39">INDEX($B$1:$H$1,MATCH(MAX(B39:H39),B39:H39,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K39" t="str" cm="1">
+        <f t="array" ref="K39">INDEX($H$1:$I$1,MATCH(MAX(H39:I39),H39:I39,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>0.291597827903091</v>
@@ -2314,24 +2568,30 @@
       <c r="E40">
         <v>0.270164912280702</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
+        <v>0.218260651629073</v>
+      </c>
+      <c r="G40">
+        <v>0.262346198830409</v>
+      </c>
+      <c r="H40">
         <v>0.301115789473684</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>0.274639264828739</v>
       </c>
-      <c r="H40" t="str" cm="1">
-        <f t="array" ref="H40">INDEX($B$1:$F$1,MATCH(MAX(B40:F40),B40:F40,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I40" t="str" cm="1">
-        <f t="array" ref="I40">INDEX($F$1:$G$1,MATCH(MAX(F40:G40),F40:G40,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="str" cm="1">
+        <f t="array" ref="J40">INDEX($B$1:$H$1,MATCH(MAX(B40:H40),B40:H40,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K40" t="str" cm="1">
+        <f t="array" ref="K40">INDEX($H$1:$I$1,MATCH(MAX(H40:I40),H40:I40,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0.195162790697674</v>
@@ -2345,24 +2605,30 @@
       <c r="E41">
         <v>0.196527131782946</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
+        <v>0.0942325581395349</v>
+      </c>
+      <c r="G41">
+        <v>0.179658914728682</v>
+      </c>
+      <c r="H41">
         <v>0.194170542635659</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>0.181193798449612</v>
       </c>
-      <c r="H41" t="str" cm="1">
-        <f t="array" ref="H41">INDEX($B$1:$F$1,MATCH(MAX(B41:F41),B41:F41,0))</f>
+      <c r="J41" t="str" cm="1">
+        <f t="array" ref="J41">INDEX($B$1:$H$1,MATCH(MAX(B41:H41),B41:H41,0))</f>
         <v>Kshell</v>
       </c>
-      <c r="I41" t="str" cm="1">
-        <f t="array" ref="I41">INDEX($F$1:$G$1,MATCH(MAX(F41:G41),F41:G41,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="K41" t="str" cm="1">
+        <f t="array" ref="K41">INDEX($H$1:$I$1,MATCH(MAX(H41:I41),H41:I41,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>0.10132103939648</v>
@@ -2376,24 +2642,30 @@
       <c r="E42">
         <v>0.109015926236379</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
+        <v>0.0600318524727578</v>
+      </c>
+      <c r="G42">
+        <v>0.0851718357082984</v>
+      </c>
+      <c r="H42">
         <v>0.114499580888516</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>0.107054484492875</v>
       </c>
-      <c r="H42" t="str" cm="1">
-        <f t="array" ref="H42">INDEX($B$1:$F$1,MATCH(MAX(B42:F42),B42:F42,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I42" t="str" cm="1">
-        <f t="array" ref="I42">INDEX($F$1:$G$1,MATCH(MAX(F42:G42),F42:G42,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="str" cm="1">
+        <f t="array" ref="J42">INDEX($B$1:$H$1,MATCH(MAX(B42:H42),B42:H42,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K42" t="str" cm="1">
+        <f t="array" ref="K42">INDEX($H$1:$I$1,MATCH(MAX(H42:I42),H42:I42,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>0.663471698113208</v>
@@ -2407,24 +2679,30 @@
       <c r="E43">
         <v>0.6835</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
+        <v>0.665566037735849</v>
+      </c>
+      <c r="G43">
+        <v>0.660547169811321</v>
+      </c>
+      <c r="H43">
         <v>0.671075471698113</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>0.626066037735849</v>
       </c>
-      <c r="H43" t="str" cm="1">
-        <f t="array" ref="H43">INDEX($B$1:$F$1,MATCH(MAX(B43:F43),B43:F43,0))</f>
+      <c r="J43" t="str" cm="1">
+        <f t="array" ref="J43">INDEX($B$1:$H$1,MATCH(MAX(B43:H43),B43:H43,0))</f>
         <v>rcnn</v>
       </c>
-      <c r="I43" t="str" cm="1">
-        <f t="array" ref="I43">INDEX($F$1:$G$1,MATCH(MAX(F43:G43),F43:G43,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="K43" t="str" cm="1">
+        <f t="array" ref="K43">INDEX($H$1:$I$1,MATCH(MAX(H43:I43),H43:I43,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0.101591173766473</v>
@@ -2438,22 +2716,28 @@
       <c r="E44">
         <v>0.0762604964756359</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
+        <v>0.10758443150475</v>
+      </c>
+      <c r="G44">
+        <v>0.125835121054245</v>
+      </c>
+      <c r="H44">
         <v>0.134679129635305</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>0.132254980079681</v>
       </c>
-      <c r="H44" t="str" cm="1">
-        <f t="array" ref="H44">INDEX($B$1:$F$1,MATCH(MAX(B44:F44),B44:F44,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I44" t="str" cm="1">
-        <f t="array" ref="I44">INDEX($F$1:$G$1,MATCH(MAX(F44:G44),F44:G44,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+      <c r="J44" t="str" cm="1">
+        <f t="array" ref="J44">INDEX($B$1:$H$1,MATCH(MAX(B44:H44),B44:H44,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K44" t="str" cm="1">
+        <f t="array" ref="K44">INDEX($H$1:$I$1,MATCH(MAX(H44:I44),H44:I44,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2466,24 +2750,30 @@
       <c r="E45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H45" t="e" cm="1">
-        <f t="array" ref="H45">INDEX($B$1:$F$1,MATCH(MAX(B45:F45),B45:F45,0))</f>
+      <c r="H45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" t="e" cm="1">
+        <f t="array" ref="J45">INDEX($B$1:$H$1,MATCH(MAX(B45:H45),B45:H45,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I45" t="e" cm="1">
-        <f t="array" ref="I45">INDEX($F$1:$G$1,MATCH(MAX(F45:G45),F45:G45,0))</f>
+      <c r="K45" t="e" cm="1">
+        <f t="array" ref="K45">INDEX($H$1:$I$1,MATCH(MAX(H45:I45),H45:I45,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>0.177098003422704</v>
@@ -2497,24 +2787,30 @@
       <c r="E46">
         <v>0.153104848830576</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
+        <v>0.0930224757558471</v>
+      </c>
+      <c r="G46">
+        <v>0.0980709640616087</v>
+      </c>
+      <c r="H46">
         <v>0.186037649743297</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>0.169693782087849</v>
       </c>
-      <c r="H46" t="str" cm="1">
-        <f t="array" ref="H46">INDEX($B$1:$F$1,MATCH(MAX(B46:F46),B46:F46,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I46" t="str" cm="1">
-        <f t="array" ref="I46">INDEX($F$1:$G$1,MATCH(MAX(F46:G46),F46:G46,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="str" cm="1">
+        <f t="array" ref="J46">INDEX($B$1:$H$1,MATCH(MAX(B46:H46),B46:H46,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K46" t="str" cm="1">
+        <f t="array" ref="K46">INDEX($H$1:$I$1,MATCH(MAX(H46:I46),H46:I46,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>0.593403286978508</v>
@@ -2528,24 +2824,30 @@
       <c r="E47">
         <v>0.563208596713021</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
+        <v>0.57819216182048</v>
+      </c>
+      <c r="G47">
+        <v>0.579838179519595</v>
+      </c>
+      <c r="H47">
         <v>0.591345132743363</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>0.544240202275601</v>
       </c>
-      <c r="H47" t="str" cm="1">
-        <f t="array" ref="H47">INDEX($B$1:$F$1,MATCH(MAX(B47:F47),B47:F47,0))</f>
+      <c r="J47" t="str" cm="1">
+        <f t="array" ref="J47">INDEX($B$1:$H$1,MATCH(MAX(B47:H47),B47:H47,0))</f>
         <v>Kshell</v>
       </c>
-      <c r="I47" t="str" cm="1">
-        <f t="array" ref="I47">INDEX($F$1:$G$1,MATCH(MAX(F47:G47),F47:G47,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="K47" t="str" cm="1">
+        <f t="array" ref="K47">INDEX($H$1:$I$1,MATCH(MAX(H47:I47),H47:I47,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B48">
         <v>0.202080315997367</v>
@@ -2559,24 +2861,30 @@
       <c r="E48">
         <v>0.14422339258284</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
+        <v>0.137199912222954</v>
+      </c>
+      <c r="G48">
+        <v>0.182934386657889</v>
+      </c>
+      <c r="H48">
         <v>0.216208470484968</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>0.201905639675225</v>
       </c>
-      <c r="H48" t="str" cm="1">
-        <f t="array" ref="H48">INDEX($B$1:$F$1,MATCH(MAX(B48:F48),B48:F48,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I48" t="str" cm="1">
-        <f t="array" ref="I48">INDEX($F$1:$G$1,MATCH(MAX(F48:G48),F48:G48,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" t="str" cm="1">
+        <f t="array" ref="J48">INDEX($B$1:$H$1,MATCH(MAX(B48:H48),B48:H48,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K48" t="str" cm="1">
+        <f t="array" ref="K48">INDEX($H$1:$I$1,MATCH(MAX(H48:I48),H48:I48,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>0.626394658753709</v>
@@ -2590,24 +2898,30 @@
       <c r="E49">
         <v>0.638008902077151</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
+        <v>0.189620178041543</v>
+      </c>
+      <c r="G49">
+        <v>0.189777448071217</v>
+      </c>
+      <c r="H49">
         <v>0.765320474777448</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>0.635118694362018</v>
       </c>
-      <c r="H49" t="str" cm="1">
-        <f t="array" ref="H49">INDEX($B$1:$F$1,MATCH(MAX(B49:F49),B49:F49,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I49" t="str" cm="1">
-        <f t="array" ref="I49">INDEX($F$1:$G$1,MATCH(MAX(F49:G49),F49:G49,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="str" cm="1">
+        <f t="array" ref="J49">INDEX($B$1:$H$1,MATCH(MAX(B49:H49),B49:H49,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K49" t="str" cm="1">
+        <f t="array" ref="K49">INDEX($H$1:$I$1,MATCH(MAX(H49:I49),H49:I49,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>0.628607142857143</v>
@@ -2621,24 +2935,30 @@
       <c r="E50">
         <v>0.483955357142857</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
+        <v>0.467348214285714</v>
+      </c>
+      <c r="G50">
+        <v>0.468705357142857</v>
+      </c>
+      <c r="H50">
         <v>0.630080357142857</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>0.5798125</v>
       </c>
-      <c r="H50" t="str" cm="1">
-        <f t="array" ref="H50">INDEX($B$1:$F$1,MATCH(MAX(B50:F50),B50:F50,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I50" t="str" cm="1">
-        <f t="array" ref="I50">INDEX($F$1:$G$1,MATCH(MAX(F50:G50),F50:G50,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="str" cm="1">
+        <f t="array" ref="J50">INDEX($B$1:$H$1,MATCH(MAX(B50:H50),B50:H50,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K50" t="str" cm="1">
+        <f t="array" ref="K50">INDEX($H$1:$I$1,MATCH(MAX(H50:I50),H50:I50,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>0.305520467836257</v>
@@ -2652,24 +2972,30 @@
       <c r="E51">
         <v>0.285650125313283</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
+        <v>0.241093065998329</v>
+      </c>
+      <c r="G51">
+        <v>0.274706599832916</v>
+      </c>
+      <c r="H51">
         <v>0.320892731829574</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>0.293558897243108</v>
       </c>
-      <c r="H51" t="str" cm="1">
-        <f t="array" ref="H51">INDEX($B$1:$F$1,MATCH(MAX(B51:F51),B51:F51,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I51" t="str" cm="1">
-        <f t="array" ref="I51">INDEX($F$1:$G$1,MATCH(MAX(F51:G51),F51:G51,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="str" cm="1">
+        <f t="array" ref="J51">INDEX($B$1:$H$1,MATCH(MAX(B51:H51),B51:H51,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K51" t="str" cm="1">
+        <f t="array" ref="K51">INDEX($H$1:$I$1,MATCH(MAX(H51:I51),H51:I51,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B52">
         <v>0.209798449612403</v>
@@ -2683,24 +3009,30 @@
       <c r="E52">
         <v>0.20846511627907</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
+        <v>0.128868217054263</v>
+      </c>
+      <c r="G52">
+        <v>0.189736434108527</v>
+      </c>
+      <c r="H52">
         <v>0.208496124031008</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>0.191162790697674</v>
       </c>
-      <c r="H52" t="str" cm="1">
-        <f t="array" ref="H52">INDEX($B$1:$F$1,MATCH(MAX(B52:F52),B52:F52,0))</f>
+      <c r="J52" t="str" cm="1">
+        <f t="array" ref="J52">INDEX($B$1:$H$1,MATCH(MAX(B52:H52),B52:H52,0))</f>
         <v>DC</v>
       </c>
-      <c r="I52" t="str" cm="1">
-        <f t="array" ref="I52">INDEX($F$1:$G$1,MATCH(MAX(F52:G52),F52:G52,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="K52" t="str" cm="1">
+        <f t="array" ref="K52">INDEX($H$1:$I$1,MATCH(MAX(H52:I52),H52:I52,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B53">
         <v>0.108181056160939</v>
@@ -2714,24 +3046,30 @@
       <c r="E53">
         <v>0.116469404861693</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
+        <v>0.0665029337803856</v>
+      </c>
+      <c r="G53">
+        <v>0.0922564962279967</v>
+      </c>
+      <c r="H53">
         <v>0.123535624476111</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>0.112955574182733</v>
       </c>
-      <c r="H53" t="str" cm="1">
-        <f t="array" ref="H53">INDEX($B$1:$F$1,MATCH(MAX(B53:F53),B53:F53,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I53" t="str" cm="1">
-        <f t="array" ref="I53">INDEX($F$1:$G$1,MATCH(MAX(F53:G53),F53:G53,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="str" cm="1">
+        <f t="array" ref="J53">INDEX($B$1:$H$1,MATCH(MAX(B53:H53),B53:H53,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K53" t="str" cm="1">
+        <f t="array" ref="K53">INDEX($H$1:$I$1,MATCH(MAX(H53:I53),H53:I53,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B54">
         <v>0.725547169811321</v>
@@ -2745,24 +3083,30 @@
       <c r="E54">
         <v>0.733688679245283</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
+        <v>0.726905660377358</v>
+      </c>
+      <c r="G54">
+        <v>0.717924528301887</v>
+      </c>
+      <c r="H54">
         <v>0.725547169811321</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>0.681679245283019</v>
       </c>
-      <c r="H54" t="str" cm="1">
-        <f t="array" ref="H54">INDEX($B$1:$F$1,MATCH(MAX(B54:F54),B54:F54,0))</f>
+      <c r="J54" t="str" cm="1">
+        <f t="array" ref="J54">INDEX($B$1:$H$1,MATCH(MAX(B54:H54),B54:H54,0))</f>
         <v>rcnn</v>
       </c>
-      <c r="I54" t="str" cm="1">
-        <f t="array" ref="I54">INDEX($F$1:$G$1,MATCH(MAX(F54:G54),F54:G54,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="K54" t="str" cm="1">
+        <f t="array" ref="K54">INDEX($H$1:$I$1,MATCH(MAX(H54:I54),H54:I54,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B55">
         <v>0.12099846766779</v>
@@ -2776,22 +3120,28 @@
       <c r="E55">
         <v>0.109379711921545</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
+        <v>0.116878332822556</v>
+      </c>
+      <c r="G55">
+        <v>0.135209929512718</v>
+      </c>
+      <c r="H55">
         <v>0.150076616610481</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>0.15447931351517</v>
       </c>
-      <c r="H55" t="str" cm="1">
-        <f t="array" ref="H55">INDEX($B$1:$F$1,MATCH(MAX(B55:F55),B55:F55,0))</f>
+      <c r="J55" t="str" cm="1">
+        <f t="array" ref="J55">INDEX($B$1:$H$1,MATCH(MAX(B55:H55),B55:H55,0))</f>
         <v>Kshell</v>
       </c>
-      <c r="I55" t="str" cm="1">
-        <f t="array" ref="I55">INDEX($F$1:$G$1,MATCH(MAX(F55:G55),F55:G55,0))</f>
+      <c r="K55" t="str" cm="1">
+        <f t="array" ref="K55">INDEX($H$1:$I$1,MATCH(MAX(H55:I55),H55:I55,0))</f>
         <v>sage</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:11">
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
@@ -2804,24 +3154,30 @@
       <c r="E56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H56" t="e" cm="1">
-        <f t="array" ref="H56">INDEX($B$1:$F$1,MATCH(MAX(B56:F56),B56:F56,0))</f>
+      <c r="H56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" t="e" cm="1">
+        <f t="array" ref="J56">INDEX($B$1:$H$1,MATCH(MAX(B56:H56),B56:H56,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I56" t="e" cm="1">
-        <f t="array" ref="I56">INDEX($F$1:$G$1,MATCH(MAX(F56:G56),F56:G56,0))</f>
+      <c r="K56" t="e" cm="1">
+        <f t="array" ref="K56">INDEX($H$1:$I$1,MATCH(MAX(H56:I56),H56:I56,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>0.19412413006275</v>
@@ -2835,24 +3191,30 @@
       <c r="E57">
         <v>0.167682601254991</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
+        <v>0.100942384483742</v>
+      </c>
+      <c r="G57">
+        <v>0.11808054763263</v>
+      </c>
+      <c r="H57">
         <v>0.197843468339989</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>0.185830918425556</v>
       </c>
-      <c r="H57" t="str" cm="1">
-        <f t="array" ref="H57">INDEX($B$1:$F$1,MATCH(MAX(B57:F57),B57:F57,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I57" t="str" cm="1">
-        <f t="array" ref="I57">INDEX($F$1:$G$1,MATCH(MAX(F57:G57),F57:G57,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" t="str" cm="1">
+        <f t="array" ref="J57">INDEX($B$1:$H$1,MATCH(MAX(B57:H57),B57:H57,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K57" t="str" cm="1">
+        <f t="array" ref="K57">INDEX($H$1:$I$1,MATCH(MAX(H57:I57),H57:I57,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>0.616581542351454</v>
@@ -2866,24 +3228,30 @@
       <c r="E58">
         <v>0.596470290771176</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
+        <v>0.597570164348925</v>
+      </c>
+      <c r="G58">
+        <v>0.600973451327434</v>
+      </c>
+      <c r="H58">
         <v>0.626166877370417</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>0.554472819216182</v>
       </c>
-      <c r="H58" t="str" cm="1">
-        <f t="array" ref="H58">INDEX($B$1:$F$1,MATCH(MAX(B58:F58),B58:F58,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I58" t="str" cm="1">
-        <f t="array" ref="I58">INDEX($F$1:$G$1,MATCH(MAX(F58:G58),F58:G58,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="str" cm="1">
+        <f t="array" ref="J58">INDEX($B$1:$H$1,MATCH(MAX(B58:H58),B58:H58,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K58" t="str" cm="1">
+        <f t="array" ref="K58">INDEX($H$1:$I$1,MATCH(MAX(H58:I58),H58:I58,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B59">
         <v>0.217121790651745</v>
@@ -2897,24 +3265,30 @@
       <c r="E59">
         <v>0.156206714944042</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
+        <v>0.148865920561773</v>
+      </c>
+      <c r="G59">
+        <v>0.201966644722405</v>
+      </c>
+      <c r="H59">
         <v>0.225345622119816</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>0.217809962694755</v>
       </c>
-      <c r="H59" t="str" cm="1">
-        <f t="array" ref="H59">INDEX($B$1:$F$1,MATCH(MAX(B59:F59),B59:F59,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I59" t="str" cm="1">
-        <f t="array" ref="I59">INDEX($F$1:$G$1,MATCH(MAX(F59:G59),F59:G59,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="str" cm="1">
+        <f t="array" ref="J59">INDEX($B$1:$H$1,MATCH(MAX(B59:H59),B59:H59,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K59" t="str" cm="1">
+        <f t="array" ref="K59">INDEX($H$1:$I$1,MATCH(MAX(H59:I59),H59:I59,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>0.626928783382789</v>
@@ -2928,24 +3302,30 @@
       <c r="E60">
         <v>0.642287833827893</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
+        <v>0.190412462908012</v>
+      </c>
+      <c r="G60">
+        <v>0.190376854599407</v>
+      </c>
+      <c r="H60">
         <v>0.772480712166172</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>0.653394658753709</v>
       </c>
-      <c r="H60" t="str" cm="1">
-        <f t="array" ref="H60">INDEX($B$1:$F$1,MATCH(MAX(B60:F60),B60:F60,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I60" t="str" cm="1">
-        <f t="array" ref="I60">INDEX($F$1:$G$1,MATCH(MAX(F60:G60),F60:G60,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="str" cm="1">
+        <f t="array" ref="J60">INDEX($B$1:$H$1,MATCH(MAX(B60:H60),B60:H60,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K60" t="str" cm="1">
+        <f t="array" ref="K60">INDEX($H$1:$I$1,MATCH(MAX(H60:I60),H60:I60,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>0.629258928571429</v>
@@ -2959,24 +3339,30 @@
       <c r="E61">
         <v>0.483330357142857</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
+        <v>0.468696428571429</v>
+      </c>
+      <c r="G61">
+        <v>0.467026785714286</v>
+      </c>
+      <c r="H61">
         <v>0.629741071428571</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>0.582598214285714</v>
       </c>
-      <c r="H61" t="str" cm="1">
-        <f t="array" ref="H61">INDEX($B$1:$F$1,MATCH(MAX(B61:F61),B61:F61,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I61" t="str" cm="1">
-        <f t="array" ref="I61">INDEX($F$1:$G$1,MATCH(MAX(F61:G61),F61:G61,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="str" cm="1">
+        <f t="array" ref="J61">INDEX($B$1:$H$1,MATCH(MAX(B61:H61),B61:H61,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K61" t="str" cm="1">
+        <f t="array" ref="K61">INDEX($H$1:$I$1,MATCH(MAX(H61:I61),H61:I61,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B62">
         <v>0.320382121971596</v>
@@ -2990,24 +3376,30 @@
       <c r="E62">
         <v>0.303533500417711</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
+        <v>0.258373934837093</v>
+      </c>
+      <c r="G62">
+        <v>0.283984461152882</v>
+      </c>
+      <c r="H62">
         <v>0.337177777777778</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>0.309526315789474</v>
       </c>
-      <c r="H62" t="str" cm="1">
-        <f t="array" ref="H62">INDEX($B$1:$F$1,MATCH(MAX(B62:F62),B62:F62,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I62" t="str" cm="1">
-        <f t="array" ref="I62">INDEX($F$1:$G$1,MATCH(MAX(F62:G62),F62:G62,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" t="str" cm="1">
+        <f t="array" ref="J62">INDEX($B$1:$H$1,MATCH(MAX(B62:H62),B62:H62,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K62" t="str" cm="1">
+        <f t="array" ref="K62">INDEX($H$1:$I$1,MATCH(MAX(H62:I62),H62:I62,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B63">
         <v>0.210015503875969</v>
@@ -3021,24 +3413,30 @@
       <c r="E63">
         <v>0.208682170542636</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
+        <v>0.126806201550388</v>
+      </c>
+      <c r="G63">
+        <v>0.188976744186047</v>
+      </c>
+      <c r="H63">
         <v>0.208635658914729</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>0.193007751937985</v>
       </c>
-      <c r="H63" t="str" cm="1">
-        <f t="array" ref="H63">INDEX($B$1:$F$1,MATCH(MAX(B63:F63),B63:F63,0))</f>
+      <c r="J63" t="str" cm="1">
+        <f t="array" ref="J63">INDEX($B$1:$H$1,MATCH(MAX(B63:H63),B63:H63,0))</f>
         <v>DC</v>
       </c>
-      <c r="I63" t="str" cm="1">
-        <f t="array" ref="I63">INDEX($F$1:$G$1,MATCH(MAX(F63:G63),F63:G63,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="K63" t="str" cm="1">
+        <f t="array" ref="K63">INDEX($H$1:$I$1,MATCH(MAX(H63:I63),H63:I63,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B64">
         <v>0.118125733445096</v>
@@ -3052,24 +3450,30 @@
       <c r="E64">
         <v>0.128142497904443</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
+        <v>0.0729455155071249</v>
+      </c>
+      <c r="G64">
+        <v>0.098650461022632</v>
+      </c>
+      <c r="H64">
         <v>0.134345347862531</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>0.124321877619447</v>
       </c>
-      <c r="H64" t="str" cm="1">
-        <f t="array" ref="H64">INDEX($B$1:$F$1,MATCH(MAX(B64:F64),B64:F64,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I64" t="str" cm="1">
-        <f t="array" ref="I64">INDEX($F$1:$G$1,MATCH(MAX(F64:G64),F64:G64,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="str" cm="1">
+        <f t="array" ref="J64">INDEX($B$1:$H$1,MATCH(MAX(B64:H64),B64:H64,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K64" t="str" cm="1">
+        <f t="array" ref="K64">INDEX($H$1:$I$1,MATCH(MAX(H64:I64),H64:I64,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B65">
         <v>0.766367924528302</v>
@@ -3083,24 +3487,30 @@
       <c r="E65">
         <v>0.763490566037736</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
+        <v>0.762943396226415</v>
+      </c>
+      <c r="G65">
+        <v>0.761018867924528</v>
+      </c>
+      <c r="H65">
         <v>0.752349056603773</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>0.708018867924528</v>
       </c>
-      <c r="H65" t="str" cm="1">
-        <f t="array" ref="H65">INDEX($B$1:$F$1,MATCH(MAX(B65:F65),B65:F65,0))</f>
+      <c r="J65" t="str" cm="1">
+        <f t="array" ref="J65">INDEX($B$1:$H$1,MATCH(MAX(B65:H65),B65:H65,0))</f>
         <v>DC</v>
       </c>
-      <c r="I65" t="str" cm="1">
-        <f t="array" ref="I65">INDEX($F$1:$G$1,MATCH(MAX(F65:G65),F65:G65,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="K65" t="str" cm="1">
+        <f t="array" ref="K65">INDEX($H$1:$I$1,MATCH(MAX(H65:I65),H65:I65,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B66">
         <v>0.133859638369598</v>
@@ -3114,22 +3524,28 @@
       <c r="E66">
         <v>0.12221023597916</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
+        <v>0.13600796812749</v>
+      </c>
+      <c r="G66">
+        <v>0.143666564511186</v>
+      </c>
+      <c r="H66">
         <v>0.164101746858719</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>0.166253754213914</v>
       </c>
-      <c r="H66" t="str" cm="1">
-        <f t="array" ref="H66">INDEX($B$1:$F$1,MATCH(MAX(B66:F66),B66:F66,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I66" t="str" cm="1">
-        <f t="array" ref="I66">INDEX($F$1:$G$1,MATCH(MAX(F66:G66),F66:G66,0))</f>
+      <c r="J66" t="str" cm="1">
+        <f t="array" ref="J66">INDEX($B$1:$H$1,MATCH(MAX(B66:H66),B66:H66,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K66" t="str" cm="1">
+        <f t="array" ref="K66">INDEX($H$1:$I$1,MATCH(MAX(H66:I66),H66:I66,0))</f>
         <v>sage</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:11">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -3142,24 +3558,30 @@
       <c r="E67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H67" t="e" cm="1">
-        <f t="array" ref="H67">INDEX($B$1:$F$1,MATCH(MAX(B67:F67),B67:F67,0))</f>
+      <c r="H67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" t="e" cm="1">
+        <f t="array" ref="J67">INDEX($B$1:$H$1,MATCH(MAX(B67:H67),B67:H67,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I67" t="e" cm="1">
-        <f t="array" ref="I67">INDEX($F$1:$G$1,MATCH(MAX(F67:G67),F67:G67,0))</f>
+      <c r="K67" t="e" cm="1">
+        <f t="array" ref="K67">INDEX($H$1:$I$1,MATCH(MAX(H67:I67),H67:I67,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B68">
         <v>0.203806274957216</v>
@@ -3173,24 +3595,30 @@
       <c r="E68">
         <v>0.180497889332573</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
+        <v>0.112310325156874</v>
+      </c>
+      <c r="G68">
+        <v>0.12732892184826</v>
+      </c>
+      <c r="H68">
         <v>0.210046776953794</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>0.199486366229321</v>
       </c>
-      <c r="H68" t="str" cm="1">
-        <f t="array" ref="H68">INDEX($B$1:$F$1,MATCH(MAX(B68:F68),B68:F68,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I68" t="str" cm="1">
-        <f t="array" ref="I68">INDEX($F$1:$G$1,MATCH(MAX(F68:G68),F68:G68,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="str" cm="1">
+        <f t="array" ref="J68">INDEX($B$1:$H$1,MATCH(MAX(B68:H68),B68:H68,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K68" t="str" cm="1">
+        <f t="array" ref="K68">INDEX($H$1:$I$1,MATCH(MAX(H68:I68),H68:I68,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B69">
         <v>0.635109987357775</v>
@@ -3204,24 +3632,30 @@
       <c r="E69">
         <v>0.604715549936789</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
+        <v>0.617719342604298</v>
+      </c>
+      <c r="G69">
+        <v>0.62014412136536</v>
+      </c>
+      <c r="H69">
         <v>0.637302149178255</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>0.572981036662453</v>
       </c>
-      <c r="H69" t="str" cm="1">
-        <f t="array" ref="H69">INDEX($B$1:$F$1,MATCH(MAX(B69:F69),B69:F69,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I69" t="str" cm="1">
-        <f t="array" ref="I69">INDEX($F$1:$G$1,MATCH(MAX(F69:G69),F69:G69,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" t="str" cm="1">
+        <f t="array" ref="J69">INDEX($B$1:$H$1,MATCH(MAX(B69:H69),B69:H69,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K69" t="str" cm="1">
+        <f t="array" ref="K69">INDEX($H$1:$I$1,MATCH(MAX(H69:I69),H69:I69,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>0.232413429888084</v>
@@ -3235,24 +3669,30 @@
       <c r="E70">
         <v>0.165238973008558</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
+        <v>0.156313364055299</v>
+      </c>
+      <c r="G70">
+        <v>0.212628044766294</v>
+      </c>
+      <c r="H70">
         <v>0.2425139346061</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>0.232660522273426</v>
       </c>
-      <c r="H70" t="str" cm="1">
-        <f t="array" ref="H70">INDEX($B$1:$F$1,MATCH(MAX(B70:F70),B70:F70,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I70" t="str" cm="1">
-        <f t="array" ref="I70">INDEX($F$1:$G$1,MATCH(MAX(F70:G70),F70:G70,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" t="str" cm="1">
+        <f t="array" ref="J70">INDEX($B$1:$H$1,MATCH(MAX(B70:H70),B70:H70,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K70" t="str" cm="1">
+        <f t="array" ref="K70">INDEX($H$1:$I$1,MATCH(MAX(H70:I70),H70:I70,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B71">
         <v>0.663682492581602</v>
@@ -3266,24 +3706,30 @@
       <c r="E71">
         <v>0.741875370919881</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
+        <v>0.190359050445104</v>
+      </c>
+      <c r="G71">
+        <v>0.19053115727003</v>
+      </c>
+      <c r="H71">
         <v>0.787166172106825</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>0.735281899109792</v>
       </c>
-      <c r="H71" t="str" cm="1">
-        <f t="array" ref="H71">INDEX($B$1:$F$1,MATCH(MAX(B71:F71),B71:F71,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I71" t="str" cm="1">
-        <f t="array" ref="I71">INDEX($F$1:$G$1,MATCH(MAX(F71:G71),F71:G71,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" t="str" cm="1">
+        <f t="array" ref="J71">INDEX($B$1:$H$1,MATCH(MAX(B71:H71),B71:H71,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K71" t="str" cm="1">
+        <f t="array" ref="K71">INDEX($H$1:$I$1,MATCH(MAX(H71:I71),H71:I71,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B72">
         <v>0.667089285714286</v>
@@ -3297,24 +3743,30 @@
       <c r="E72">
         <v>0.596303571428571</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
+        <v>0.520982142857143</v>
+      </c>
+      <c r="G72">
+        <v>0.537455357142857</v>
+      </c>
+      <c r="H72">
         <v>0.674285714285714</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>0.622669642857143</v>
       </c>
-      <c r="H72" t="str" cm="1">
-        <f t="array" ref="H72">INDEX($B$1:$F$1,MATCH(MAX(B72:F72),B72:F72,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I72" t="str" cm="1">
-        <f t="array" ref="I72">INDEX($F$1:$G$1,MATCH(MAX(F72:G72),F72:G72,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="str" cm="1">
+        <f t="array" ref="J72">INDEX($B$1:$H$1,MATCH(MAX(B72:H72),B72:H72,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K72" t="str" cm="1">
+        <f t="array" ref="K72">INDEX($H$1:$I$1,MATCH(MAX(H72:I72),H72:I72,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B73">
         <v>0.334110944026734</v>
@@ -3328,24 +3780,30 @@
       <c r="E73">
         <v>0.314922138680033</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
+        <v>0.269508270676692</v>
+      </c>
+      <c r="G73">
+        <v>0.293929824561403</v>
+      </c>
+      <c r="H73">
         <v>0.348258646616541</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>0.320005847953216</v>
       </c>
-      <c r="H73" t="str" cm="1">
-        <f t="array" ref="H73">INDEX($B$1:$F$1,MATCH(MAX(B73:F73),B73:F73,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I73" t="str" cm="1">
-        <f t="array" ref="I73">INDEX($F$1:$G$1,MATCH(MAX(F73:G73),F73:G73,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" t="str" cm="1">
+        <f t="array" ref="J73">INDEX($B$1:$H$1,MATCH(MAX(B73:H73),B73:H73,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K73" t="str" cm="1">
+        <f t="array" ref="K73">INDEX($H$1:$I$1,MATCH(MAX(H73:I73),H73:I73,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B74">
         <v>0.221007751937984</v>
@@ -3359,24 +3817,30 @@
       <c r="E74">
         <v>0.223054263565892</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
+        <v>0.158635658914729</v>
+      </c>
+      <c r="G74">
+        <v>0.193348837209302</v>
+      </c>
+      <c r="H74">
         <v>0.220744186046512</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>0.204449612403101</v>
       </c>
-      <c r="H74" t="str" cm="1">
-        <f t="array" ref="H74">INDEX($B$1:$F$1,MATCH(MAX(B74:F74),B74:F74,0))</f>
+      <c r="J74" t="str" cm="1">
+        <f t="array" ref="J74">INDEX($B$1:$H$1,MATCH(MAX(B74:H74),B74:H74,0))</f>
         <v>rcnn</v>
       </c>
-      <c r="I74" t="str" cm="1">
-        <f t="array" ref="I74">INDEX($F$1:$G$1,MATCH(MAX(F74:G74),F74:G74,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="K74" t="str" cm="1">
+        <f t="array" ref="K74">INDEX($H$1:$I$1,MATCH(MAX(H74:I74),H74:I74,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B75">
         <v>0.124995808885163</v>
@@ -3390,24 +3854,30 @@
       <c r="E75">
         <v>0.13661357921207</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
+        <v>0.083661357921207</v>
+      </c>
+      <c r="G75">
+        <v>0.105584241408215</v>
+      </c>
+      <c r="H75">
         <v>0.143213746856664</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>0.133880972338642</v>
       </c>
-      <c r="H75" t="str" cm="1">
-        <f t="array" ref="H75">INDEX($B$1:$F$1,MATCH(MAX(B75:F75),B75:F75,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I75" t="str" cm="1">
-        <f t="array" ref="I75">INDEX($F$1:$G$1,MATCH(MAX(F75:G75),F75:G75,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="str" cm="1">
+        <f t="array" ref="J75">INDEX($B$1:$H$1,MATCH(MAX(B75:H75),B75:H75,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K75" t="str" cm="1">
+        <f t="array" ref="K75">INDEX($H$1:$I$1,MATCH(MAX(H75:I75),H75:I75,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B76">
         <v>0.768518867924528</v>
@@ -3421,24 +3891,30 @@
       <c r="E76">
         <v>0.764443396226415</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
+        <v>0.764688679245283</v>
+      </c>
+      <c r="G76">
+        <v>0.763650943396226</v>
+      </c>
+      <c r="H76">
         <v>0.754905660377358</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>0.708679245283019</v>
       </c>
-      <c r="H76" t="str" cm="1">
-        <f t="array" ref="H76">INDEX($B$1:$F$1,MATCH(MAX(B76:F76),B76:F76,0))</f>
+      <c r="J76" t="str" cm="1">
+        <f t="array" ref="J76">INDEX($B$1:$H$1,MATCH(MAX(B76:H76),B76:H76,0))</f>
         <v>DC</v>
       </c>
-      <c r="I76" t="str" cm="1">
-        <f t="array" ref="I76">INDEX($F$1:$G$1,MATCH(MAX(F76:G76),F76:G76,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="K76" t="str" cm="1">
+        <f t="array" ref="K76">INDEX($H$1:$I$1,MATCH(MAX(H76:I76),H76:I76,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <v>0.140063132087036</v>
@@ -3452,22 +3928,28 @@
       <c r="E77">
         <v>0.132370211461845</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
+        <v>0.14438063132087</v>
+      </c>
+      <c r="G77">
+        <v>0.151242414955562</v>
+      </c>
+      <c r="H77">
         <v>0.176608029420778</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>0.183241802022679</v>
       </c>
-      <c r="H77" t="str" cm="1">
-        <f t="array" ref="H77">INDEX($B$1:$F$1,MATCH(MAX(B77:F77),B77:F77,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I77" t="str" cm="1">
-        <f t="array" ref="I77">INDEX($F$1:$G$1,MATCH(MAX(F77:G77),F77:G77,0))</f>
+      <c r="J77" t="str" cm="1">
+        <f t="array" ref="J77">INDEX($B$1:$H$1,MATCH(MAX(B77:H77),B77:H77,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K77" t="str" cm="1">
+        <f t="array" ref="K77">INDEX($H$1:$I$1,MATCH(MAX(H77:I77),H77:I77,0))</f>
         <v>sage</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:11">
       <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
@@ -3480,24 +3962,30 @@
       <c r="E78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H78" t="e" cm="1">
-        <f t="array" ref="H78">INDEX($B$1:$F$1,MATCH(MAX(B78:F78),B78:F78,0))</f>
+      <c r="H78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" t="e" cm="1">
+        <f t="array" ref="J78">INDEX($B$1:$H$1,MATCH(MAX(B78:H78),B78:H78,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I78" t="e" cm="1">
-        <f t="array" ref="I78">INDEX($F$1:$G$1,MATCH(MAX(F78:G78),F78:G78,0))</f>
+      <c r="K78" t="e" cm="1">
+        <f t="array" ref="K78">INDEX($H$1:$I$1,MATCH(MAX(H78:I78),H78:I78,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B79">
         <v>0.211767027952082</v>
@@ -3511,24 +3999,30 @@
       <c r="E79">
         <v>0.190158357102111</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
+        <v>0.119591785510553</v>
+      </c>
+      <c r="G79">
+        <v>0.138759383913292</v>
+      </c>
+      <c r="H79">
         <v>0.221071306332002</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>0.214972960638905</v>
       </c>
-      <c r="H79" t="str" cm="1">
-        <f t="array" ref="H79">INDEX($B$1:$F$1,MATCH(MAX(B79:F79),B79:F79,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I79" t="str" cm="1">
-        <f t="array" ref="I79">INDEX($F$1:$G$1,MATCH(MAX(F79:G79),F79:G79,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" t="str" cm="1">
+        <f t="array" ref="J79">INDEX($B$1:$H$1,MATCH(MAX(B79:H79),B79:H79,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K79" t="str" cm="1">
+        <f t="array" ref="K79">INDEX($H$1:$I$1,MATCH(MAX(H79:I79),H79:I79,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B80">
         <v>0.639365360303413</v>
@@ -3542,24 +4036,30 @@
       <c r="E80">
         <v>0.620991150442478</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
+        <v>0.627572692793932</v>
+      </c>
+      <c r="G80">
+        <v>0.630139064475348</v>
+      </c>
+      <c r="H80">
         <v>0.658053097345133</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>0.579764854614412</v>
       </c>
-      <c r="H80" t="str" cm="1">
-        <f t="array" ref="H80">INDEX($B$1:$F$1,MATCH(MAX(B80:F80),B80:F80,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I80" t="str" cm="1">
-        <f t="array" ref="I80">INDEX($F$1:$G$1,MATCH(MAX(F80:G80),F80:G80,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" t="str" cm="1">
+        <f t="array" ref="J80">INDEX($B$1:$H$1,MATCH(MAX(B80:H80),B80:H80,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K80" t="str" cm="1">
+        <f t="array" ref="K80">INDEX($H$1:$I$1,MATCH(MAX(H80:I80),H80:I80,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B81">
         <v>0.24164011411016</v>
@@ -3573,24 +4073,30 @@
       <c r="E81">
         <v>0.173752468729427</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
+        <v>0.160843537414966</v>
+      </c>
+      <c r="G81">
+        <v>0.219534342769366</v>
+      </c>
+      <c r="H81">
         <v>0.252667983322361</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>0.245225367566381</v>
       </c>
-      <c r="H81" t="str" cm="1">
-        <f t="array" ref="H81">INDEX($B$1:$F$1,MATCH(MAX(B81:F81),B81:F81,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I81" t="str" cm="1">
-        <f t="array" ref="I81">INDEX($F$1:$G$1,MATCH(MAX(F81:G81),F81:G81,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="str" cm="1">
+        <f t="array" ref="J81">INDEX($B$1:$H$1,MATCH(MAX(B81:H81),B81:H81,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K81" t="str" cm="1">
+        <f t="array" ref="K81">INDEX($H$1:$I$1,MATCH(MAX(H81:I81),H81:I81,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B82">
         <v>0.689124629080119</v>
@@ -3604,24 +4110,30 @@
       <c r="E82">
         <v>0.767709198813056</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
+        <v>0.190364985163205</v>
+      </c>
+      <c r="G82">
+        <v>0.190474777448071</v>
+      </c>
+      <c r="H82">
         <v>0.806445103857567</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>0.757302670623145</v>
       </c>
-      <c r="H82" t="str" cm="1">
-        <f t="array" ref="H82">INDEX($B$1:$F$1,MATCH(MAX(B82:F82),B82:F82,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I82" t="str" cm="1">
-        <f t="array" ref="I82">INDEX($F$1:$G$1,MATCH(MAX(F82:G82),F82:G82,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="str" cm="1">
+        <f t="array" ref="J82">INDEX($B$1:$H$1,MATCH(MAX(B82:H82),B82:H82,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K82" t="str" cm="1">
+        <f t="array" ref="K82">INDEX($H$1:$I$1,MATCH(MAX(H82:I82),H82:I82,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B83">
         <v>0.672133928571429</v>
@@ -3635,24 +4147,30 @@
       <c r="E83">
         <v>0.597535714285714</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
+        <v>0.522839285714286</v>
+      </c>
+      <c r="G83">
+        <v>0.5354375</v>
+      </c>
+      <c r="H83">
         <v>0.6744375</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>0.6310625</v>
       </c>
-      <c r="H83" t="str" cm="1">
-        <f t="array" ref="H83">INDEX($B$1:$F$1,MATCH(MAX(B83:F83),B83:F83,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I83" t="str" cm="1">
-        <f t="array" ref="I83">INDEX($F$1:$G$1,MATCH(MAX(F83:G83),F83:G83,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" t="str" cm="1">
+        <f t="array" ref="J83">INDEX($B$1:$H$1,MATCH(MAX(B83:H83),B83:H83,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K83" t="str" cm="1">
+        <f t="array" ref="K83">INDEX($H$1:$I$1,MATCH(MAX(H83:I83),H83:I83,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B84">
         <v>0.346689223057644</v>
@@ -3666,24 +4184,30 @@
       <c r="E84">
         <v>0.326971595655806</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="2">
+        <v>0.27952380952381</v>
+      </c>
+      <c r="G84">
+        <v>0.306538847117794</v>
+      </c>
+      <c r="H84">
         <v>0.359424561403509</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>0.333185463659148</v>
       </c>
-      <c r="H84" t="str" cm="1">
-        <f t="array" ref="H84">INDEX($B$1:$F$1,MATCH(MAX(B84:F84),B84:F84,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I84" t="str" cm="1">
-        <f t="array" ref="I84">INDEX($F$1:$G$1,MATCH(MAX(F84:G84),F84:G84,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" t="str" cm="1">
+        <f t="array" ref="J84">INDEX($B$1:$H$1,MATCH(MAX(B84:H84),B84:H84,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K84" t="str" cm="1">
+        <f t="array" ref="K84">INDEX($H$1:$I$1,MATCH(MAX(H84:I84),H84:I84,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B85">
         <v>0.226108527131783</v>
@@ -3697,24 +4221,30 @@
       <c r="E85">
         <v>0.228062015503876</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
+        <v>0.17122480620155</v>
+      </c>
+      <c r="G85">
+        <v>0.193720930232558</v>
+      </c>
+      <c r="H85">
         <v>0.227643410852713</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>0.212077519379845</v>
       </c>
-      <c r="H85" t="str" cm="1">
-        <f t="array" ref="H85">INDEX($B$1:$F$1,MATCH(MAX(B85:F85),B85:F85,0))</f>
+      <c r="J85" t="str" cm="1">
+        <f t="array" ref="J85">INDEX($B$1:$H$1,MATCH(MAX(B85:H85),B85:H85,0))</f>
         <v>GLSTM</v>
       </c>
-      <c r="I85" t="str" cm="1">
-        <f t="array" ref="I85">INDEX($F$1:$G$1,MATCH(MAX(F85:G85),F85:G85,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="K85" t="str" cm="1">
+        <f t="array" ref="K85">INDEX($H$1:$I$1,MATCH(MAX(H85:I85),H85:I85,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B86">
         <v>0.13171332774518</v>
@@ -3728,24 +4258,30 @@
       <c r="E86">
         <v>0.145964794635373</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
+        <v>0.0904358759430008</v>
+      </c>
+      <c r="G86">
+        <v>0.111210393964795</v>
+      </c>
+      <c r="H86">
         <v>0.148930427493713</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>0.142103939647946</v>
       </c>
-      <c r="H86" t="str" cm="1">
-        <f t="array" ref="H86">INDEX($B$1:$F$1,MATCH(MAX(B86:F86),B86:F86,0))</f>
+      <c r="J86" t="str" cm="1">
+        <f t="array" ref="J86">INDEX($B$1:$H$1,MATCH(MAX(B86:H86),B86:H86,0))</f>
         <v>Kshell</v>
       </c>
-      <c r="I86" t="str" cm="1">
-        <f t="array" ref="I86">INDEX($F$1:$G$1,MATCH(MAX(F86:G86),F86:G86,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="K86" t="str" cm="1">
+        <f t="array" ref="K86">INDEX($H$1:$I$1,MATCH(MAX(H86:I86),H86:I86,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B87">
         <v>0.791320754716981</v>
@@ -3759,24 +4295,30 @@
       <c r="E87">
         <v>0.78288679245283</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
+        <v>0.786311320754717</v>
+      </c>
+      <c r="G87">
+        <v>0.791179245283019</v>
+      </c>
+      <c r="H87">
         <v>0.782018867924528</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>0.728141509433962</v>
       </c>
-      <c r="H87" t="str" cm="1">
-        <f t="array" ref="H87">INDEX($B$1:$F$1,MATCH(MAX(B87:F87),B87:F87,0))</f>
+      <c r="J87" t="str" cm="1">
+        <f t="array" ref="J87">INDEX($B$1:$H$1,MATCH(MAX(B87:H87),B87:H87,0))</f>
         <v>DC</v>
       </c>
-      <c r="I87" t="str" cm="1">
-        <f t="array" ref="I87">INDEX($F$1:$G$1,MATCH(MAX(F87:G87),F87:G87,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="K87" t="str" cm="1">
+        <f t="array" ref="K87">INDEX($H$1:$I$1,MATCH(MAX(H87:I87),H87:I87,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B88">
         <v>0.151230769230769</v>
@@ -3790,22 +4332,28 @@
       <c r="E88">
         <v>0.149638982531413</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="2">
+        <v>0.15089488201042</v>
+      </c>
+      <c r="G88">
+        <v>0.158533864541833</v>
+      </c>
+      <c r="H88">
         <v>0.189367453263868</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>0.190565124118909</v>
       </c>
-      <c r="H88" t="str" cm="1">
-        <f t="array" ref="H88">INDEX($B$1:$F$1,MATCH(MAX(B88:F88),B88:F88,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I88" t="str" cm="1">
-        <f t="array" ref="I88">INDEX($F$1:$G$1,MATCH(MAX(F88:G88),F88:G88,0))</f>
+      <c r="J88" t="str" cm="1">
+        <f t="array" ref="J88">INDEX($B$1:$H$1,MATCH(MAX(B88:H88),B88:H88,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K88" t="str" cm="1">
+        <f t="array" ref="K88">INDEX($H$1:$I$1,MATCH(MAX(H88:I88),H88:I88,0))</f>
         <v>sage</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:11">
       <c r="B89" s="1" t="s">
         <v>0</v>
       </c>
@@ -3818,24 +4366,30 @@
       <c r="E89" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H89" t="e" cm="1">
-        <f t="array" ref="H89">INDEX($B$1:$F$1,MATCH(MAX(B89:F89),B89:F89,0))</f>
+      <c r="H89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" t="e" cm="1">
+        <f t="array" ref="J89">INDEX($B$1:$H$1,MATCH(MAX(B89:H89),B89:H89,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I89" t="e" cm="1">
-        <f t="array" ref="I89">INDEX($F$1:$G$1,MATCH(MAX(F89:G89),F89:G89,0))</f>
+      <c r="K89" t="e" cm="1">
+        <f t="array" ref="K89">INDEX($H$1:$I$1,MATCH(MAX(H89:I89),H89:I89,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B90">
         <v>0.219285567598403</v>
@@ -3849,24 +4403,30 @@
       <c r="E90">
         <v>0.201409697661152</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
+        <v>0.127676440387906</v>
+      </c>
+      <c r="G90">
+        <v>0.147738277239019</v>
+      </c>
+      <c r="H90">
         <v>0.232546491728466</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>0.227458984597832</v>
       </c>
-      <c r="H90" t="str" cm="1">
-        <f t="array" ref="H90">INDEX($B$1:$F$1,MATCH(MAX(B90:F90),B90:F90,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I90" t="str" cm="1">
-        <f t="array" ref="I90">INDEX($F$1:$G$1,MATCH(MAX(F90:G90),F90:G90,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" t="str" cm="1">
+        <f t="array" ref="J90">INDEX($B$1:$H$1,MATCH(MAX(B90:H90),B90:H90,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K90" t="str" cm="1">
+        <f t="array" ref="K90">INDEX($H$1:$I$1,MATCH(MAX(H90:I90),H90:I90,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B91">
         <v>0.651633375474083</v>
@@ -3880,24 +4440,30 @@
       <c r="E91">
         <v>0.623812895069532</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="2">
+        <v>0.645228824273072</v>
+      </c>
+      <c r="G91">
+        <v>0.636091024020228</v>
+      </c>
+      <c r="H91">
         <v>0.666581542351454</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>0.59353982300885</v>
       </c>
-      <c r="H91" t="str" cm="1">
-        <f t="array" ref="H91">INDEX($B$1:$F$1,MATCH(MAX(B91:F91),B91:F91,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I91" t="str" cm="1">
-        <f t="array" ref="I91">INDEX($F$1:$G$1,MATCH(MAX(F91:G91),F91:G91,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" t="str" cm="1">
+        <f t="array" ref="J91">INDEX($B$1:$H$1,MATCH(MAX(B91:H91),B91:H91,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K91" t="str" cm="1">
+        <f t="array" ref="K91">INDEX($H$1:$I$1,MATCH(MAX(H91:I91),H91:I91,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B92">
         <v>0.249106429668642</v>
@@ -3911,24 +4477,30 @@
       <c r="E92">
         <v>0.186381391266184</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
+        <v>0.170243142418258</v>
+      </c>
+      <c r="G92">
+        <v>0.226908931314461</v>
+      </c>
+      <c r="H92">
         <v>0.261115646258503</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>0.256129471143296</v>
       </c>
-      <c r="H92" t="str" cm="1">
-        <f t="array" ref="H92">INDEX($B$1:$F$1,MATCH(MAX(B92:F92),B92:F92,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I92" t="str" cm="1">
-        <f t="array" ref="I92">INDEX($F$1:$G$1,MATCH(MAX(F92:G92),F92:G92,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" t="str" cm="1">
+        <f t="array" ref="J92">INDEX($B$1:$H$1,MATCH(MAX(B92:H92),B92:H92,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K92" t="str" cm="1">
+        <f t="array" ref="K92">INDEX($H$1:$I$1,MATCH(MAX(H92:I92),H92:I92,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B93">
         <v>0.692967359050445</v>
@@ -3942,24 +4514,30 @@
       <c r="E93">
         <v>0.792872403560831</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
+        <v>0.190572700296736</v>
+      </c>
+      <c r="G93">
+        <v>0.190747774480712</v>
+      </c>
+      <c r="H93">
         <v>0.809824925816024</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>0.76933234421365</v>
       </c>
-      <c r="H93" t="str" cm="1">
-        <f t="array" ref="H93">INDEX($B$1:$F$1,MATCH(MAX(B93:F93),B93:F93,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I93" t="str" cm="1">
-        <f t="array" ref="I93">INDEX($F$1:$G$1,MATCH(MAX(F93:G93),F93:G93,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" t="str" cm="1">
+        <f t="array" ref="J93">INDEX($B$1:$H$1,MATCH(MAX(B93:H93),B93:H93,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K93" t="str" cm="1">
+        <f t="array" ref="K93">INDEX($H$1:$I$1,MATCH(MAX(H93:I93),H93:I93,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B94">
         <v>0.685035714285714</v>
@@ -3973,24 +4551,30 @@
       <c r="E94">
         <v>0.6708125</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
+        <v>0.644116071428571</v>
+      </c>
+      <c r="G94">
+        <v>0.550776785714286</v>
+      </c>
+      <c r="H94">
         <v>0.712241071428571</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>0.633151785714286</v>
       </c>
-      <c r="H94" t="str" cm="1">
-        <f t="array" ref="H94">INDEX($B$1:$F$1,MATCH(MAX(B94:F94),B94:F94,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I94" t="str" cm="1">
-        <f t="array" ref="I94">INDEX($F$1:$G$1,MATCH(MAX(F94:G94),F94:G94,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" t="str" cm="1">
+        <f t="array" ref="J94">INDEX($B$1:$H$1,MATCH(MAX(B94:H94),B94:H94,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K94" t="str" cm="1">
+        <f t="array" ref="K94">INDEX($H$1:$I$1,MATCH(MAX(H94:I94),H94:I94,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B95">
         <v>0.357624895572264</v>
@@ -4004,24 +4588,30 @@
       <c r="E95">
         <v>0.339391311612364</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
+        <v>0.288616374269006</v>
+      </c>
+      <c r="G95">
+        <v>0.314051127819549</v>
+      </c>
+      <c r="H95">
         <v>0.369997994987469</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>0.343220384294068</v>
       </c>
-      <c r="H95" t="str" cm="1">
-        <f t="array" ref="H95">INDEX($B$1:$F$1,MATCH(MAX(B95:F95),B95:F95,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I95" t="str" cm="1">
-        <f t="array" ref="I95">INDEX($F$1:$G$1,MATCH(MAX(F95:G95),F95:G95,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" t="str" cm="1">
+        <f t="array" ref="J95">INDEX($B$1:$H$1,MATCH(MAX(B95:H95),B95:H95,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K95" t="str" cm="1">
+        <f t="array" ref="K95">INDEX($H$1:$I$1,MATCH(MAX(H95:I95),H95:I95,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>0.238356589147287</v>
@@ -4035,24 +4625,30 @@
       <c r="E96">
         <v>0.23537984496124</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
+        <v>0.179968992248062</v>
+      </c>
+      <c r="G96">
+        <v>0.194542635658915</v>
+      </c>
+      <c r="H96">
         <v>0.234759689922481</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>0.219178294573643</v>
       </c>
-      <c r="H96" t="str" cm="1">
-        <f t="array" ref="H96">INDEX($B$1:$F$1,MATCH(MAX(B96:F96),B96:F96,0))</f>
+      <c r="J96" t="str" cm="1">
+        <f t="array" ref="J96">INDEX($B$1:$H$1,MATCH(MAX(B96:H96),B96:H96,0))</f>
         <v>DC</v>
       </c>
-      <c r="I96" t="str" cm="1">
-        <f t="array" ref="I96">INDEX($F$1:$G$1,MATCH(MAX(F96:G96),F96:G96,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="K96" t="str" cm="1">
+        <f t="array" ref="K96">INDEX($H$1:$I$1,MATCH(MAX(H96:I96),H96:I96,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B97">
         <v>0.145943000838223</v>
@@ -4066,24 +4662,30 @@
       <c r="E97">
         <v>0.158744341994971</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
+        <v>0.098918692372171</v>
+      </c>
+      <c r="G97">
+        <v>0.118113998323554</v>
+      </c>
+      <c r="H97">
         <v>0.163305951383068</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>0.154380553227158</v>
       </c>
-      <c r="H97" t="str" cm="1">
-        <f t="array" ref="H97">INDEX($B$1:$F$1,MATCH(MAX(B97:F97),B97:F97,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I97" t="str" cm="1">
-        <f t="array" ref="I97">INDEX($F$1:$G$1,MATCH(MAX(F97:G97),F97:G97,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" t="str" cm="1">
+        <f t="array" ref="J97">INDEX($B$1:$H$1,MATCH(MAX(B97:H97),B97:H97,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K97" t="str" cm="1">
+        <f t="array" ref="K97">INDEX($H$1:$I$1,MATCH(MAX(H97:I97),H97:I97,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B98">
         <v>0.804330188679245</v>
@@ -4097,24 +4699,30 @@
       <c r="E98">
         <v>0.792037735849057</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
+        <v>0.806377358490566</v>
+      </c>
+      <c r="G98">
+        <v>0.81177358490566</v>
+      </c>
+      <c r="H98">
         <v>0.802764150943396</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>0.758490566037736</v>
       </c>
-      <c r="H98" t="str" cm="1">
-        <f t="array" ref="H98">INDEX($B$1:$F$1,MATCH(MAX(B98:F98),B98:F98,0))</f>
-        <v>DC</v>
-      </c>
-      <c r="I98" t="str" cm="1">
-        <f t="array" ref="I98">INDEX($F$1:$G$1,MATCH(MAX(F98:G98),F98:G98,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" t="str" cm="1">
+        <f t="array" ref="J98">INDEX($B$1:$H$1,MATCH(MAX(B98:H98),B98:H98,0))</f>
+        <v>prgc</v>
+      </c>
+      <c r="K98" t="str" cm="1">
+        <f t="array" ref="K98">INDEX($H$1:$I$1,MATCH(MAX(H98:I98),H98:I98,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B99">
         <v>0.176579221575238</v>
@@ -4128,22 +4736,28 @@
       <c r="E99">
         <v>0.162829911124732</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
+        <v>0.160960465828992</v>
+      </c>
+      <c r="G99">
+        <v>0.170096230462764</v>
+      </c>
+      <c r="H99">
         <v>0.205512105424456</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>0.199550107263255</v>
       </c>
-      <c r="H99" t="str" cm="1">
-        <f t="array" ref="H99">INDEX($B$1:$F$1,MATCH(MAX(B99:F99),B99:F99,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I99" t="str" cm="1">
-        <f t="array" ref="I99">INDEX($F$1:$G$1,MATCH(MAX(F99:G99),F99:G99,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
+      <c r="J99" t="str" cm="1">
+        <f t="array" ref="J99">INDEX($B$1:$H$1,MATCH(MAX(B99:H99),B99:H99,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K99" t="str" cm="1">
+        <f t="array" ref="K99">INDEX($H$1:$I$1,MATCH(MAX(H99:I99),H99:I99,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
       <c r="B100" s="1" t="s">
         <v>0</v>
       </c>
@@ -4156,24 +4770,30 @@
       <c r="E100" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H100" t="e" cm="1">
-        <f t="array" ref="H100">INDEX($B$1:$F$1,MATCH(MAX(B100:F100),B100:F100,0))</f>
+      <c r="H100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" t="e" cm="1">
+        <f t="array" ref="J100">INDEX($B$1:$H$1,MATCH(MAX(B100:H100),B100:H100,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="I100" t="e" cm="1">
-        <f t="array" ref="I100">INDEX($F$1:$G$1,MATCH(MAX(F100:G100),F100:G100,0))</f>
+      <c r="K100" t="e" cm="1">
+        <f t="array" ref="K100">INDEX($H$1:$I$1,MATCH(MAX(H100:I100),H100:I100,0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B101">
         <v>0.230656246434683</v>
@@ -4187,24 +4807,30 @@
       <c r="E101">
         <v>0.210801825442099</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
+        <v>0.145435938391329</v>
+      </c>
+      <c r="G101">
+        <v>0.154154249857387</v>
+      </c>
+      <c r="H101">
         <v>0.241362007986309</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>0.238218140330861</v>
       </c>
-      <c r="H101" t="str" cm="1">
-        <f t="array" ref="H101">INDEX($B$1:$F$1,MATCH(MAX(B101:F101),B101:F101,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I101" t="str" cm="1">
-        <f t="array" ref="I101">INDEX($F$1:$G$1,MATCH(MAX(F101:G101),F101:G101,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" t="str" cm="1">
+        <f t="array" ref="J101">INDEX($B$1:$H$1,MATCH(MAX(B101:H101),B101:H101,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K101" t="str" cm="1">
+        <f t="array" ref="K101">INDEX($H$1:$I$1,MATCH(MAX(H101:I101),H101:I101,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B102">
         <v>0.659350189633376</v>
@@ -4218,24 +4844,30 @@
       <c r="E102">
         <v>0.629046776232617</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="2">
+        <v>0.654457648546144</v>
+      </c>
+      <c r="G102">
+        <v>0.645888748419722</v>
+      </c>
+      <c r="H102">
         <v>0.681046776232617</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <v>0.60134007585335</v>
       </c>
-      <c r="H102" t="str" cm="1">
-        <f t="array" ref="H102">INDEX($B$1:$F$1,MATCH(MAX(B102:F102),B102:F102,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I102" t="str" cm="1">
-        <f t="array" ref="I102">INDEX($F$1:$G$1,MATCH(MAX(F102:G102),F102:G102,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" t="str" cm="1">
+        <f t="array" ref="J102">INDEX($B$1:$H$1,MATCH(MAX(B102:H102),B102:H102,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K102" t="str" cm="1">
+        <f t="array" ref="K102">INDEX($H$1:$I$1,MATCH(MAX(H102:I102),H102:I102,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B103">
         <v>0.253628703094141</v>
@@ -4249,24 +4881,30 @@
       <c r="E103">
         <v>0.19744261575598</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="2">
+        <v>0.179032258064516</v>
+      </c>
+      <c r="G103">
+        <v>0.236658327847268</v>
+      </c>
+      <c r="H103">
         <v>0.27031073074391</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>0.26615668202765</v>
       </c>
-      <c r="H103" t="str" cm="1">
-        <f t="array" ref="H103">INDEX($B$1:$F$1,MATCH(MAX(B103:F103),B103:F103,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I103" t="str" cm="1">
-        <f t="array" ref="I103">INDEX($F$1:$G$1,MATCH(MAX(F103:G103),F103:G103,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" t="str" cm="1">
+        <f t="array" ref="J103">INDEX($B$1:$H$1,MATCH(MAX(B103:H103),B103:H103,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K103" t="str" cm="1">
+        <f t="array" ref="K103">INDEX($H$1:$I$1,MATCH(MAX(H103:I103),H103:I103,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B104">
         <v>0.702545994065282</v>
@@ -4280,24 +4918,30 @@
       <c r="E104">
         <v>0.801050445103858</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="2">
+        <v>0.190649851632048</v>
+      </c>
+      <c r="G104">
+        <v>0.190738872403561</v>
+      </c>
+      <c r="H104">
         <v>0.821219584569733</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>0.779771513353116</v>
       </c>
-      <c r="H104" t="str" cm="1">
-        <f t="array" ref="H104">INDEX($B$1:$F$1,MATCH(MAX(B104:F104),B104:F104,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I104" t="str" cm="1">
-        <f t="array" ref="I104">INDEX($F$1:$G$1,MATCH(MAX(F104:G104),F104:G104,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" t="str" cm="1">
+        <f t="array" ref="J104">INDEX($B$1:$H$1,MATCH(MAX(B104:H104),B104:H104,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K104" t="str" cm="1">
+        <f t="array" ref="K104">INDEX($H$1:$I$1,MATCH(MAX(H104:I104),H104:I104,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B105">
         <v>0.697866071428571</v>
@@ -4311,24 +4955,30 @@
       <c r="E105">
         <v>0.6873125</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="2">
+        <v>0.657035714285714</v>
+      </c>
+      <c r="G105">
+        <v>0.557794642857143</v>
+      </c>
+      <c r="H105">
         <v>0.7269375</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>0.6713125</v>
       </c>
-      <c r="H105" t="str" cm="1">
-        <f t="array" ref="H105">INDEX($B$1:$F$1,MATCH(MAX(B105:F105),B105:F105,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I105" t="str" cm="1">
-        <f t="array" ref="I105">INDEX($F$1:$G$1,MATCH(MAX(F105:G105),F105:G105,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" t="str" cm="1">
+        <f t="array" ref="J105">INDEX($B$1:$H$1,MATCH(MAX(B105:H105),B105:H105,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K105" t="str" cm="1">
+        <f t="array" ref="K105">INDEX($H$1:$I$1,MATCH(MAX(H105:I105),H105:I105,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B106">
         <v>0.36832447786132</v>
@@ -4342,24 +4992,30 @@
       <c r="E106">
         <v>0.348534335839599</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="2">
+        <v>0.299909941520468</v>
+      </c>
+      <c r="G106">
+        <v>0.323704594820384</v>
+      </c>
+      <c r="H106">
         <v>0.378942188805347</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>0.353978780284043</v>
       </c>
-      <c r="H106" t="str" cm="1">
-        <f t="array" ref="H106">INDEX($B$1:$F$1,MATCH(MAX(B106:F106),B106:F106,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I106" t="str" cm="1">
-        <f t="array" ref="I106">INDEX($F$1:$G$1,MATCH(MAX(F106:G106),F106:G106,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" t="str" cm="1">
+        <f t="array" ref="J106">INDEX($B$1:$H$1,MATCH(MAX(B106:H106),B106:H106,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K106" t="str" cm="1">
+        <f t="array" ref="K106">INDEX($H$1:$I$1,MATCH(MAX(H106:I106),H106:I106,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B107">
         <v>0.245984496124031</v>
@@ -4373,24 +5029,30 @@
       <c r="E107">
         <v>0.246542635658915</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="2">
+        <v>0.20415503875969</v>
+      </c>
+      <c r="G107">
+        <v>0.198728682170543</v>
+      </c>
+      <c r="H107">
         <v>0.248558139534884</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>0.234015503875969</v>
       </c>
-      <c r="H107" t="str" cm="1">
-        <f t="array" ref="H107">INDEX($B$1:$F$1,MATCH(MAX(B107:F107),B107:F107,0))</f>
+      <c r="J107" t="str" cm="1">
+        <f t="array" ref="J107">INDEX($B$1:$H$1,MATCH(MAX(B107:H107),B107:H107,0))</f>
         <v>GLSTM</v>
       </c>
-      <c r="I107" t="str" cm="1">
-        <f t="array" ref="I107">INDEX($F$1:$G$1,MATCH(MAX(F107:G107),F107:G107,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="K107" t="str" cm="1">
+        <f t="array" ref="K107">INDEX($H$1:$I$1,MATCH(MAX(H107:I107),H107:I107,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B108">
         <v>0.154472757753563</v>
@@ -4404,24 +5066,30 @@
       <c r="E108">
         <v>0.169911148365465</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="2">
+        <v>0.110779547359598</v>
+      </c>
+      <c r="G108">
+        <v>0.122938809723386</v>
+      </c>
+      <c r="H108">
         <v>0.175262363788768</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>0.165624476110645</v>
       </c>
-      <c r="H108" t="str" cm="1">
-        <f t="array" ref="H108">INDEX($B$1:$F$1,MATCH(MAX(B108:F108),B108:F108,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I108" t="str" cm="1">
-        <f t="array" ref="I108">INDEX($F$1:$G$1,MATCH(MAX(F108:G108),F108:G108,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" t="str" cm="1">
+        <f t="array" ref="J108">INDEX($B$1:$H$1,MATCH(MAX(B108:H108),B108:H108,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K108" t="str" cm="1">
+        <f t="array" ref="K108">INDEX($H$1:$I$1,MATCH(MAX(H108:I108),H108:I108,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B109">
         <v>0.819415094339623</v>
@@ -4435,24 +5103,30 @@
       <c r="E109">
         <v>0.805981132075472</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="2">
+        <v>0.821283018867925</v>
+      </c>
+      <c r="G109">
+        <v>0.821764150943396</v>
+      </c>
+      <c r="H109">
         <v>0.820660377358491</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>0.776188679245283</v>
       </c>
-      <c r="H109" t="str" cm="1">
-        <f t="array" ref="H109">INDEX($B$1:$F$1,MATCH(MAX(B109:F109),B109:F109,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I109" t="str" cm="1">
-        <f t="array" ref="I109">INDEX($F$1:$G$1,MATCH(MAX(F109:G109),F109:G109,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" t="str" cm="1">
+        <f t="array" ref="J109">INDEX($B$1:$H$1,MATCH(MAX(B109:H109),B109:H109,0))</f>
+        <v>prgc</v>
+      </c>
+      <c r="K109" t="str" cm="1">
+        <f t="array" ref="K109">INDEX($H$1:$I$1,MATCH(MAX(H109:I109),H109:I109,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B110">
         <v>0.186178976402084</v>
@@ -4466,28 +5140,34 @@
       <c r="E110">
         <v>0.175352742874655</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="2">
+        <v>0.167931351517009</v>
+      </c>
+      <c r="G110">
+        <v>0.18448728164266</v>
+      </c>
+      <c r="H110">
         <v>0.215262641740729</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>0.209673306772908</v>
       </c>
-      <c r="H110" t="str" cm="1">
-        <f t="array" ref="H110">INDEX($B$1:$F$1,MATCH(MAX(B110:F110),B110:F110,0))</f>
-        <v>pre</v>
-      </c>
-      <c r="I110" t="str" cm="1">
-        <f t="array" ref="I110">INDEX($F$1:$G$1,MATCH(MAX(F110:G110),F110:G110,0))</f>
-        <v>pre</v>
-      </c>
-    </row>
-    <row r="111" spans="8:9">
-      <c r="H111">
-        <f>COUNTIF(H2:H110,"pre")</f>
-        <v>69</v>
-      </c>
-      <c r="I111">
-        <f>COUNTIF(I2:I110,"pre")</f>
+      <c r="J110" t="str" cm="1">
+        <f t="array" ref="J110">INDEX($B$1:$H$1,MATCH(MAX(B110:H110),B110:H110,0))</f>
+        <v>pre</v>
+      </c>
+      <c r="K110" t="str" cm="1">
+        <f t="array" ref="K110">INDEX($H$1:$I$1,MATCH(MAX(H110:I110),H110:I110,0))</f>
+        <v>pre</v>
+      </c>
+    </row>
+    <row r="111" spans="10:11">
+      <c r="J111">
+        <f>COUNTIF(J2:J110,"pre")</f>
+        <v>68</v>
+      </c>
+      <c r="K111">
+        <f>COUNTIF(K2:K110,"pre")</f>
         <v>95</v>
       </c>
     </row>
@@ -4526,15 +5206,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0.422017699115044</v>
@@ -4558,12 +5238,12 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.496308470290771</v>
@@ -4587,12 +5267,12 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.529595448798989</v>
@@ -4616,12 +5296,12 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0.570670037926675</v>
@@ -4645,12 +5325,12 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0.593403286978508</v>
@@ -4674,12 +5354,12 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.616581542351454</v>
@@ -4700,15 +5380,15 @@
         <v>0.554472819216182</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0.635109987357775</v>
@@ -4729,15 +5409,15 @@
         <v>0.572981036662453</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0.639365360303413</v>
@@ -4758,15 +5438,15 @@
         <v>0.579764854614412</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.651633375474083</v>
@@ -4787,15 +5467,15 @@
         <v>0.59353982300885</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0.659350189633376</v>
@@ -4816,10 +5496,10 @@
         <v>0.60134007585335</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -4867,15 +5547,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0.0664581859669139</v>
@@ -4896,15 +5576,15 @@
         <v>0.0688287507130633</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0.110760752994866</v>
@@ -4925,15 +5605,15 @@
         <v>0.0953891614375357</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.139621677124929</v>
@@ -4954,15 +5634,15 @@
         <v>0.125355390758699</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0.157616428978893</v>
@@ -4983,15 +5663,15 @@
         <v>0.148962692527096</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.177098003422704</v>
@@ -5012,15 +5692,15 @@
         <v>0.169693782087849</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0.19412413006275</v>
@@ -5041,15 +5721,15 @@
         <v>0.185830918425556</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0.203806274957216</v>
@@ -5070,15 +5750,15 @@
         <v>0.199486366229321</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0.211767027952082</v>
@@ -5099,15 +5779,15 @@
         <v>0.214972960638905</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0.219285567598403</v>
@@ -5128,15 +5808,15 @@
         <v>0.227458984597832</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0.230656246434683</v>
@@ -5157,10 +5837,10 @@
         <v>0.238218140330861</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -5224,15 +5904,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0.0300085810603739</v>
@@ -5253,15 +5933,15 @@
         <v>0.079284707324548</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0.0833643885994483</v>
@@ -5282,15 +5962,15 @@
         <v>0.099268158136684</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.0916671774440699</v>
@@ -5311,15 +5991,15 @@
         <v>0.117929512718357</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0.101591173766473</v>
@@ -5340,15 +6020,15 @@
         <v>0.132254980079681</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0.12099846766779</v>
@@ -5372,12 +6052,12 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.133859638369598</v>
@@ -5398,15 +6078,15 @@
         <v>0.166253754213914</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0.140063132087036</v>
@@ -5427,15 +6107,15 @@
         <v>0.183241802022679</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0.151230769230769</v>
@@ -5456,15 +6136,15 @@
         <v>0.190565124118909</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0.176579221575238</v>
@@ -5485,15 +6165,15 @@
         <v>0.199550107263255</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0.186178976402084</v>
@@ -5514,10 +6194,10 @@
         <v>0.209673306772908</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -5565,15 +6245,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0.573698113207547</v>
@@ -5597,12 +6277,12 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.574537735849057</v>
@@ -5623,15 +6303,15 @@
         <v>0.493745283018868</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0.66261320754717</v>
@@ -5655,12 +6335,12 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0.663471698113208</v>
@@ -5684,12 +6364,12 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0.725547169811321</v>
@@ -5713,12 +6393,12 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0.766367924528302</v>
@@ -5742,12 +6422,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0.768518867924528</v>
@@ -5771,12 +6451,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0.791320754716981</v>
@@ -5800,12 +6480,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0.804330188679245</v>
@@ -5829,12 +6509,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0.819415094339623</v>
@@ -5855,10 +6535,10 @@
         <v>0.776188679245283</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -5906,15 +6586,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.0677418273260687</v>
@@ -5935,15 +6615,15 @@
         <v>0.0625314333612741</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0.088848281642917</v>
@@ -5967,12 +6647,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0.0968365465213747</v>
@@ -5996,12 +6676,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0.10132103939648</v>
@@ -6022,15 +6702,15 @@
         <v>0.107054484492875</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0.108181056160939</v>
@@ -6051,15 +6731,15 @@
         <v>0.112955574182733</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0.118125733445096</v>
@@ -6080,15 +6760,15 @@
         <v>0.124321877619447</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0.124995808885163</v>
@@ -6109,15 +6789,15 @@
         <v>0.133880972338642</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0.13171332774518</v>
@@ -6141,12 +6821,12 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0.145943000838223</v>
@@ -6167,15 +6847,15 @@
         <v>0.154380553227158</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0.154472757753563</v>
@@ -6196,10 +6876,10 @@
         <v>0.165624476110645</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -6247,15 +6927,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0.183193798449612</v>
@@ -6279,12 +6959,12 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0.182031007751938</v>
@@ -6305,15 +6985,15 @@
         <v>0.166759689922481</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0.185891472868217</v>
@@ -6337,12 +7017,12 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0.195162790697674</v>
@@ -6366,12 +7046,12 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0.209798449612403</v>
@@ -6395,12 +7075,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>0.210015503875969</v>
@@ -6424,12 +7104,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0.221007751937984</v>
@@ -6453,12 +7133,12 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>0.226108527131783</v>
@@ -6482,12 +7162,12 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0.238356589147287</v>
@@ -6511,12 +7191,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0.245984496124031</v>
@@ -6540,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -6588,15 +7268,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0.159453634085213</v>
@@ -6617,15 +7297,15 @@
         <v>0.16716925647452</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.229417878028404</v>
@@ -6646,15 +7326,15 @@
         <v>0.211886549707602</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.25930559732665</v>
@@ -6675,15 +7355,15 @@
         <v>0.246198830409357</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0.291597827903091</v>
@@ -6704,15 +7384,15 @@
         <v>0.274639264828739</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0.305520467836257</v>
@@ -6733,15 +7413,15 @@
         <v>0.293558897243108</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0.320382121971596</v>
@@ -6762,15 +7442,15 @@
         <v>0.309526315789474</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>0.334110944026734</v>
@@ -6791,15 +7471,15 @@
         <v>0.320005847953216</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0.346689223057644</v>
@@ -6820,15 +7500,15 @@
         <v>0.333185463659148</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.357624895572264</v>
@@ -6849,15 +7529,15 @@
         <v>0.343220384294068</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.36832447786132</v>
@@ -6878,10 +7558,10 @@
         <v>0.353978780284043</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -6930,15 +7610,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0.489991071428572</v>
@@ -6959,15 +7639,15 @@
         <v>0.439723214285714</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0.497294642857143</v>
@@ -6991,12 +7671,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0.490142857142857</v>
@@ -7017,15 +7697,15 @@
         <v>0.442035714285714</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.587446428571429</v>
@@ -7046,15 +7726,15 @@
         <v>0.54725</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.628607142857143</v>
@@ -7075,15 +7755,15 @@
         <v>0.5798125</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0.629258928571429</v>
@@ -7104,15 +7784,15 @@
         <v>0.582598214285714</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.667089285714286</v>
@@ -7133,15 +7813,15 @@
         <v>0.622669642857143</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0.672133928571429</v>
@@ -7162,15 +7842,15 @@
         <v>0.6310625</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.685035714285714</v>
@@ -7191,15 +7871,15 @@
         <v>0.633151785714286</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0.697866071428571</v>
@@ -7220,10 +7900,10 @@
         <v>0.6713125</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -7271,15 +7951,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.42186350148368</v>
@@ -7303,12 +7983,12 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.502026706231454</v>
@@ -7332,12 +8012,12 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.52186943620178</v>
@@ -7361,12 +8041,12 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.61559940652819</v>
@@ -7387,15 +8067,15 @@
         <v>0.596970326409496</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0.626394658753709</v>
@@ -7416,15 +8096,15 @@
         <v>0.635118694362018</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.626928783382789</v>
@@ -7445,15 +8125,15 @@
         <v>0.653394658753709</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.663682492581602</v>
@@ -7474,15 +8154,15 @@
         <v>0.735281899109792</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.689124629080119</v>
@@ -7503,15 +8183,15 @@
         <v>0.757302670623145</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0.692967359050445</v>
@@ -7532,15 +8212,15 @@
         <v>0.76933234421365</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0.702545994065282</v>
@@ -7561,10 +8241,10 @@
         <v>0.779771513353116</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="6:7">
@@ -7612,15 +8292,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.0585429010313803</v>
@@ -7644,12 +8324,12 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0.117426377002414</v>
@@ -7670,15 +8350,15 @@
         <v>0.119859117840685</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.163310511301295</v>
@@ -7699,15 +8379,15 @@
         <v>0.156913759052008</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0.187236778582401</v>
@@ -7728,15 +8408,15 @@
         <v>0.183567698046961</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0.202080315997367</v>
@@ -7757,15 +8437,15 @@
         <v>0.201905639675225</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.217121790651745</v>
@@ -7786,15 +8466,15 @@
         <v>0.217809962694755</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.232413429888084</v>
@@ -7815,15 +8495,15 @@
         <v>0.232660522273426</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0.24164011411016</v>
@@ -7844,15 +8524,15 @@
         <v>0.245225367566381</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.249106429668642</v>
@@ -7873,15 +8553,15 @@
         <v>0.256129471143296</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0.253628703094141</v>
@@ -7902,10 +8582,10 @@
         <v>0.26615668202765</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="6:7">

--- a/INF_4.5b(0.01-0.1)_0.01-0.1_.xlsx
+++ b/INF_4.5b(0.01-0.1)_0.01-0.1_.xlsx
@@ -122,14 +122,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,13 +615,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,132 +633,125 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1110,11 +1099,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1123,43 +1112,43 @@
     <col min="2" max="2" width="12.625"/>
     <col min="6" max="6" width="16.825" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.1833333333333" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.625"/>
-    <col min="14" max="14" width="9" style="2"/>
+    <col min="14" max="14" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" hidden="1" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
@@ -1180,7 +1169,7 @@
       <c r="G2">
         <v>0.049164175698802</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>0.112759840273816</v>
       </c>
       <c r="I2">
@@ -1198,8 +1187,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
+    <row r="3" hidden="1" spans="1:12">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3">
@@ -1220,7 +1209,7 @@
       <c r="G3">
         <v>0.422897597977244</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.481233881163085</v>
       </c>
       <c r="I3">
@@ -1238,8 +1227,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
+    <row r="4" hidden="1" spans="1:12">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4">
@@ -1260,7 +1249,7 @@
       <c r="G4">
         <v>0.0887864823348694</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.129667324994514</v>
       </c>
       <c r="I4">
@@ -1279,7 +1268,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5">
@@ -1300,7 +1289,7 @@
       <c r="G5">
         <v>0.176189910979229</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.180059347181009</v>
       </c>
       <c r="I5">
@@ -1318,8 +1307,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
+    <row r="6" hidden="1" spans="1:12">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6">
@@ -1340,7 +1329,7 @@
       <c r="G6">
         <v>0.372366071428571</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.532455357142857</v>
       </c>
       <c r="I6">
@@ -1358,8 +1347,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
+    <row r="7" hidden="1" spans="1:12">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7">
@@ -1380,7 +1369,7 @@
       <c r="G7">
         <v>0.175627736006683</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.250869841269841</v>
       </c>
       <c r="I7">
@@ -1398,8 +1387,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
+    <row r="8" hidden="1" spans="1:12">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8">
@@ -1420,7 +1409,7 @@
       <c r="G8">
         <v>0.180697674418605</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.196821705426357</v>
       </c>
       <c r="I8">
@@ -1438,8 +1427,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
+    <row r="9" hidden="1" spans="1:12">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9">
@@ -1460,7 +1449,7 @@
       <c r="G9">
         <v>0.0248784576697401</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.0798994132439229</v>
       </c>
       <c r="I9">
@@ -1478,8 +1467,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
+    <row r="10" hidden="1" spans="1:12">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10">
@@ -1500,7 +1489,7 @@
       <c r="G10">
         <v>0.570405660377358</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.639537735849057</v>
       </c>
       <c r="I10">
@@ -1518,8 +1507,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
+    <row r="11" hidden="1" spans="1:12">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11">
@@ -1540,7 +1529,7 @@
       <c r="G11">
         <v>0.0610750842782715</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.0836144652160588</v>
       </c>
       <c r="I11">
@@ -1558,32 +1547,32 @@
         <v>sage</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="3" t="s">
+    <row r="12" hidden="1" spans="2:14">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K12" t="e" cm="1">
@@ -1594,10 +1583,10 @@
         <f t="array" ref="L12">INDEX($I$1:$J$1,MATCH(MAX(I12:J12),I12:J12,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" hidden="1" spans="1:12">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1618,7 +1607,7 @@
       <c r="G13">
         <v>0.0633699942954934</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>0.14883126069595</v>
       </c>
       <c r="I13">
@@ -1636,8 +1625,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
+    <row r="14" hidden="1" spans="1:12">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1658,7 +1647,7 @@
       <c r="G14">
         <v>0.4888798988622</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>0.551107458912769</v>
       </c>
       <c r="I14">
@@ -1676,8 +1665,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
+    <row r="15" hidden="1" spans="1:12">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -1698,7 +1687,7 @@
       <c r="G15">
         <v>0.128860653938995</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>0.181528637261356</v>
       </c>
       <c r="I15">
@@ -1717,7 +1706,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -1738,7 +1727,7 @@
       <c r="G16">
         <v>0.176486646884273</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>0.520270029673591</v>
       </c>
       <c r="I16">
@@ -1756,8 +1745,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
+    <row r="17" hidden="1" spans="1:12">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -1778,7 +1767,7 @@
       <c r="G17">
         <v>0.3759375</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>0.533535714285714</v>
       </c>
       <c r="I17">
@@ -1796,8 +1785,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
+    <row r="18" hidden="1" spans="1:12">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -1818,7 +1807,7 @@
       <c r="G18">
         <v>0.216626065162907</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>0.293209523809524</v>
       </c>
       <c r="I18">
@@ -1836,8 +1825,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
+    <row r="19" hidden="1" spans="1:12">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -1858,7 +1847,7 @@
       <c r="G19">
         <v>0.182</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>0.19968992248062</v>
       </c>
       <c r="I19">
@@ -1876,8 +1865,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
+    <row r="20" hidden="1" spans="1:12">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20">
@@ -1898,7 +1887,7 @@
       <c r="G20">
         <v>0.0696596814752724</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>0.0998189438390612</v>
       </c>
       <c r="I20">
@@ -1916,8 +1905,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
+    <row r="21" hidden="1" spans="1:12">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -1938,7 +1927,7 @@
       <c r="G21">
         <v>0.571745283018868</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>0.642179245283019</v>
       </c>
       <c r="I21">
@@ -1956,8 +1945,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3" t="s">
+    <row r="22" hidden="1" spans="1:12">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22">
@@ -1978,7 +1967,7 @@
       <c r="G22">
         <v>0.0863843089181735</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>0.113625498007968</v>
       </c>
       <c r="I22">
@@ -1996,32 +1985,32 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="3" t="s">
+    <row r="23" hidden="1" spans="2:14">
+      <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K23" t="e" cm="1">
@@ -2032,10 +2021,10 @@
         <f t="array" ref="L23">INDEX($I$1:$J$1,MATCH(MAX(I23:J23),I23:J23,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3" t="s">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" hidden="1" spans="1:12">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B24">
@@ -2056,7 +2045,7 @@
       <c r="G24">
         <v>0.0737889332572732</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>0.168756189389618</v>
       </c>
       <c r="I24">
@@ -2074,8 +2063,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3" t="s">
+    <row r="25" hidden="1" spans="1:12">
+      <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B25">
@@ -2096,7 +2085,7 @@
       <c r="G25">
         <v>0.528867256637168</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>0.577774968394437</v>
       </c>
       <c r="I25">
@@ -2114,8 +2103,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3" t="s">
+    <row r="26" hidden="1" spans="1:12">
+      <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B26">
@@ -2136,7 +2125,7 @@
       <c r="G26">
         <v>0.14840333552776</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>0.206013605442177</v>
       </c>
       <c r="I26">
@@ -2155,7 +2144,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27">
@@ -2176,7 +2165,7 @@
       <c r="G27">
         <v>0.186284866468843</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>0.526554896142433</v>
       </c>
       <c r="I27">
@@ -2194,8 +2183,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3" t="s">
+    <row r="28" hidden="1" spans="1:12">
+      <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B28">
@@ -2216,7 +2205,7 @@
       <c r="G28">
         <v>0.374883928571429</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>0.536107142857143</v>
       </c>
       <c r="I28">
@@ -2234,8 +2223,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3" t="s">
+    <row r="29" hidden="1" spans="1:12">
+      <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29">
@@ -2256,7 +2245,7 @@
       <c r="G29">
         <v>0.243693567251462</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>0.314501587301587</v>
       </c>
       <c r="I29">
@@ -2274,8 +2263,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="3" t="s">
+    <row r="30" hidden="1" spans="1:12">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B30">
@@ -2296,7 +2285,7 @@
       <c r="G30">
         <v>0.181922480620155</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>0.203100775193798</v>
       </c>
       <c r="I30">
@@ -2314,8 +2303,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="3" t="s">
+    <row r="31" hidden="1" spans="1:12">
+      <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31">
@@ -2336,7 +2325,7 @@
       <c r="G31">
         <v>0.076162615255658</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>0.109562447611064</v>
       </c>
       <c r="I31">
@@ -2354,8 +2343,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="3" t="s">
+    <row r="32" hidden="1" spans="1:12">
+      <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32">
@@ -2376,7 +2365,7 @@
       <c r="G32">
         <v>0.660424528301887</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>0.737556603773585</v>
       </c>
       <c r="I32">
@@ -2394,8 +2383,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="3" t="s">
+    <row r="33" hidden="1" spans="1:12">
+      <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B33">
@@ -2416,7 +2405,7 @@
       <c r="G33">
         <v>0.110334661354582</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>0.14134232301563</v>
       </c>
       <c r="I33">
@@ -2434,32 +2423,32 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="3" t="s">
+    <row r="34" hidden="1" spans="2:14">
+      <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K34" t="e" cm="1">
@@ -2470,10 +2459,10 @@
         <f t="array" ref="L34">INDEX($I$1:$J$1,MATCH(MAX(I34:J34),I34:J34,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="3" t="s">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" hidden="1" spans="1:12">
+      <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B35">
@@ -2494,7 +2483,7 @@
       <c r="G35">
         <v>0.0852355961209355</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>0.187998859098688</v>
       </c>
       <c r="I35">
@@ -2512,8 +2501,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="3" t="s">
+    <row r="36" hidden="1" spans="1:12">
+      <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B36">
@@ -2534,7 +2523,7 @@
       <c r="G36">
         <v>0.566303413400759</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>0.622644753476612</v>
       </c>
       <c r="I36">
@@ -2552,8 +2541,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="3" t="s">
+    <row r="37" hidden="1" spans="1:12">
+      <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B37">
@@ -2574,7 +2563,7 @@
       <c r="G37">
         <v>0.158478823787579</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>0.222587228439763</v>
       </c>
       <c r="I37">
@@ -2593,7 +2582,7 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B38">
@@ -2614,7 +2603,7 @@
       <c r="G38">
         <v>0.186724035608309</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>0.567326409495549</v>
       </c>
       <c r="I38">
@@ -2632,8 +2621,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="3" t="s">
+    <row r="39" hidden="1" spans="1:12">
+      <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B39">
@@ -2654,7 +2643,7 @@
       <c r="G39">
         <v>0.413464285714286</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>0.636875</v>
       </c>
       <c r="I39">
@@ -2672,8 +2661,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="3" t="s">
+    <row r="40" hidden="1" spans="1:12">
+      <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B40">
@@ -2694,7 +2683,7 @@
       <c r="G40">
         <v>0.262346198830409</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>0.335242773600668</v>
       </c>
       <c r="I40">
@@ -2712,8 +2701,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="3" t="s">
+    <row r="41" hidden="1" spans="1:12">
+      <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B41">
@@ -2734,7 +2723,7 @@
       <c r="G41">
         <v>0.179658914728682</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>0.210837209302326</v>
       </c>
       <c r="I41">
@@ -2752,8 +2741,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="3" t="s">
+    <row r="42" hidden="1" spans="1:12">
+      <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B42">
@@ -2774,7 +2763,7 @@
       <c r="G42">
         <v>0.0851718357082984</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>0.116967309304275</v>
       </c>
       <c r="I42">
@@ -2792,8 +2781,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="3" t="s">
+    <row r="43" hidden="1" spans="1:12">
+      <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B43">
@@ -2814,7 +2803,7 @@
       <c r="G43">
         <v>0.660547169811321</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>0.736471698113208</v>
       </c>
       <c r="I43">
@@ -2832,8 +2821,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="3" t="s">
+    <row r="44" hidden="1" spans="1:12">
+      <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B44">
@@ -2854,7 +2843,7 @@
       <c r="G44">
         <v>0.125835121054245</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>0.157816120134845</v>
       </c>
       <c r="I44">
@@ -2872,32 +2861,32 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="3" t="s">
+    <row r="45" hidden="1" spans="2:14">
+      <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K45" t="e" cm="1">
@@ -2908,10 +2897,10 @@
         <f t="array" ref="L45">INDEX($I$1:$J$1,MATCH(MAX(I45:J45),I45:J45,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="3" t="s">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" hidden="1" spans="1:12">
+      <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B46">
@@ -2932,7 +2921,7 @@
       <c r="G46">
         <v>0.0980709640616087</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>0.204702567027952</v>
       </c>
       <c r="I46">
@@ -2950,8 +2939,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="3" t="s">
+    <row r="47" hidden="1" spans="1:12">
+      <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B47">
@@ -2972,7 +2961,7 @@
       <c r="G47">
         <v>0.579838179519595</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>0.646932996207332</v>
       </c>
       <c r="I47">
@@ -2990,8 +2979,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="3" t="s">
+    <row r="48" hidden="1" spans="1:12">
+      <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B48">
@@ -3012,7 +3001,7 @@
       <c r="G48">
         <v>0.182934386657889</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>0.240503840245776</v>
       </c>
       <c r="I48">
@@ -3031,7 +3020,7 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B49">
@@ -3052,7 +3041,7 @@
       <c r="G49">
         <v>0.189777448071217</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>0.638747774480712</v>
       </c>
       <c r="I49">
@@ -3070,8 +3059,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="3" t="s">
+    <row r="50" hidden="1" spans="1:12">
+      <c r="A50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B50">
@@ -3092,7 +3081,7 @@
       <c r="G50">
         <v>0.468705357142857</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>0.646794642857143</v>
       </c>
       <c r="I50">
@@ -3110,8 +3099,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="3" t="s">
+    <row r="51" hidden="1" spans="1:12">
+      <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B51">
@@ -3132,7 +3121,7 @@
       <c r="G51">
         <v>0.274706599832916</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>0.351146700083542</v>
       </c>
       <c r="I51">
@@ -3150,8 +3139,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="3" t="s">
+    <row r="52" hidden="1" spans="1:12">
+      <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B52">
@@ -3172,7 +3161,7 @@
       <c r="G52">
         <v>0.189736434108527</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>0.224124031007752</v>
       </c>
       <c r="I52">
@@ -3190,8 +3179,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="3" t="s">
+    <row r="53" hidden="1" spans="1:12">
+      <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B53">
@@ -3212,7 +3201,7 @@
       <c r="G53">
         <v>0.0922564962279967</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>0.123376362112322</v>
       </c>
       <c r="I53">
@@ -3230,8 +3219,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="3" t="s">
+    <row r="54" hidden="1" spans="1:12">
+      <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B54">
@@ -3252,7 +3241,7 @@
       <c r="G54">
         <v>0.717924528301887</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>0.772971698113208</v>
       </c>
       <c r="I54">
@@ -3270,8 +3259,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="3" t="s">
+    <row r="55" hidden="1" spans="1:12">
+      <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B55">
@@ -3292,7 +3281,7 @@
       <c r="G55">
         <v>0.135209929512718</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>0.170359791602819</v>
       </c>
       <c r="I55">
@@ -3310,32 +3299,32 @@
         <v>sage</v>
       </c>
     </row>
-    <row r="56" spans="2:14">
-      <c r="B56" s="3" t="s">
+    <row r="56" hidden="1" spans="2:14">
+      <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K56" t="e" cm="1">
@@ -3346,10 +3335,10 @@
         <f t="array" ref="L56">INDEX($I$1:$J$1,MATCH(MAX(I56:J56),I56:J56,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N56" s="5"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="3" t="s">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" hidden="1" spans="1:12">
+      <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B57">
@@ -3370,7 +3359,7 @@
       <c r="G57">
         <v>0.11808054763263</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="1">
         <v>0.218726297775242</v>
       </c>
       <c r="I57">
@@ -3388,8 +3377,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="3" t="s">
+    <row r="58" hidden="1" spans="1:12">
+      <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B58">
@@ -3410,7 +3399,7 @@
       <c r="G58">
         <v>0.600973451327434</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="1">
         <v>0.666917825537295</v>
       </c>
       <c r="I58">
@@ -3428,8 +3417,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="3" t="s">
+    <row r="59" hidden="1" spans="1:12">
+      <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B59">
@@ -3450,7 +3439,7 @@
       <c r="G59">
         <v>0.201966644722405</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="1">
         <v>0.252114987930656</v>
       </c>
       <c r="I59">
@@ -3469,7 +3458,7 @@
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B60">
@@ -3490,7 +3479,7 @@
       <c r="G60">
         <v>0.190376854599407</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="1">
         <v>0.682661721068249</v>
       </c>
       <c r="I60">
@@ -3508,8 +3497,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="3" t="s">
+    <row r="61" hidden="1" spans="1:12">
+      <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B61">
@@ -3530,7 +3519,7 @@
       <c r="G61">
         <v>0.467026785714286</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="1">
         <v>0.648821428571429</v>
       </c>
       <c r="I61">
@@ -3548,8 +3537,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="3" t="s">
+    <row r="62" hidden="1" spans="1:12">
+      <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B62">
@@ -3570,7 +3559,7 @@
       <c r="G62">
         <v>0.283984461152882</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="1">
         <v>0.365627568922306</v>
       </c>
       <c r="I62">
@@ -3588,8 +3577,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="3" t="s">
+    <row r="63" hidden="1" spans="1:12">
+      <c r="A63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B63">
@@ -3610,7 +3599,7 @@
       <c r="G63">
         <v>0.188976744186047</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="1">
         <v>0.221705426356589</v>
       </c>
       <c r="I63">
@@ -3628,8 +3617,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="3" t="s">
+    <row r="64" hidden="1" spans="1:12">
+      <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B64">
@@ -3650,7 +3639,7 @@
       <c r="G64">
         <v>0.098650461022632</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="1">
         <v>0.129074601844091</v>
       </c>
       <c r="I64">
@@ -3668,8 +3657,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="3" t="s">
+    <row r="65" hidden="1" spans="1:12">
+      <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B65">
@@ -3690,7 +3679,7 @@
       <c r="G65">
         <v>0.761018867924528</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="1">
         <v>0.802764150943396</v>
       </c>
       <c r="I65">
@@ -3708,8 +3697,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="3" t="s">
+    <row r="66" hidden="1" spans="1:12">
+      <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B66">
@@ -3730,7 +3719,7 @@
       <c r="G66">
         <v>0.143666564511186</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="1">
         <v>0.180022678516702</v>
       </c>
       <c r="I66">
@@ -3748,32 +3737,32 @@
         <v>sage</v>
       </c>
     </row>
-    <row r="67" spans="2:14">
-      <c r="B67" s="3" t="s">
+    <row r="67" hidden="1" spans="2:14">
+      <c r="B67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K67" t="e" cm="1">
@@ -3784,10 +3773,10 @@
         <f t="array" ref="L67">INDEX($I$1:$J$1,MATCH(MAX(I67:J67),I67:J67,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N67" s="5"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="3" t="s">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" hidden="1" spans="1:12">
+      <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B68">
@@ -3808,7 +3797,7 @@
       <c r="G68">
         <v>0.12732892184826</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="1">
         <v>0.232622019395322</v>
       </c>
       <c r="I68">
@@ -3826,8 +3815,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="3" t="s">
+    <row r="69" hidden="1" spans="1:12">
+      <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B69">
@@ -3848,7 +3837,7 @@
       <c r="G69">
         <v>0.62014412136536</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="1">
         <v>0.684146649810367</v>
       </c>
       <c r="I69">
@@ -3866,8 +3855,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="3" t="s">
+    <row r="70" hidden="1" spans="1:12">
+      <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B70">
@@ -3888,7 +3877,7 @@
       <c r="G70">
         <v>0.212628044766294</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="1">
         <v>0.265780557384244</v>
       </c>
       <c r="I70">
@@ -3907,7 +3896,7 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B71">
@@ -3928,7 +3917,7 @@
       <c r="G71">
         <v>0.19053115727003</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="1">
         <v>0.699261127596439</v>
       </c>
       <c r="I71">
@@ -3946,8 +3935,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="3" t="s">
+    <row r="72" hidden="1" spans="1:12">
+      <c r="A72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B72">
@@ -3968,7 +3957,7 @@
       <c r="G72">
         <v>0.537455357142857</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="1">
         <v>0.675241071428571</v>
       </c>
       <c r="I72">
@@ -3986,8 +3975,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="3" t="s">
+    <row r="73" hidden="1" spans="1:12">
+      <c r="A73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B73">
@@ -4008,7 +3997,7 @@
       <c r="G73">
         <v>0.293929824561403</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="1">
         <v>0.378964076858814</v>
       </c>
       <c r="I73">
@@ -4026,8 +4015,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="3" t="s">
+    <row r="74" hidden="1" spans="1:12">
+      <c r="A74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B74">
@@ -4048,7 +4037,7 @@
       <c r="G74">
         <v>0.193348837209302</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="1">
         <v>0.237643410852713</v>
       </c>
       <c r="I74">
@@ -4066,8 +4055,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="3" t="s">
+    <row r="75" hidden="1" spans="1:12">
+      <c r="A75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B75">
@@ -4088,7 +4077,7 @@
       <c r="G75">
         <v>0.105584241408215</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="1">
         <v>0.136896898575021</v>
       </c>
       <c r="I75">
@@ -4106,8 +4095,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="3" t="s">
+    <row r="76" hidden="1" spans="1:12">
+      <c r="A76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B76">
@@ -4128,7 +4117,7 @@
       <c r="G76">
         <v>0.763650943396226</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="1">
         <v>0.802188679245283</v>
       </c>
       <c r="I76">
@@ -4146,8 +4135,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="3" t="s">
+    <row r="77" hidden="1" spans="1:12">
+      <c r="A77" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B77">
@@ -4168,7 +4157,7 @@
       <c r="G77">
         <v>0.151242414955562</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="1">
         <v>0.19834875881091</v>
       </c>
       <c r="I77">
@@ -4186,32 +4175,32 @@
         <v>sage</v>
       </c>
     </row>
-    <row r="78" spans="2:14">
-      <c r="B78" s="3" t="s">
+    <row r="78" hidden="1" spans="2:14">
+      <c r="B78" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K78" t="e" cm="1">
@@ -4222,10 +4211,10 @@
         <f t="array" ref="L78">INDEX($I$1:$J$1,MATCH(MAX(I78:J78),I78:J78,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N78" s="5"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="3" t="s">
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" hidden="1" spans="1:12">
+      <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B79">
@@ -4246,7 +4235,7 @@
       <c r="G79">
         <v>0.138759383913292</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="1">
         <v>0.243792127780947</v>
       </c>
       <c r="I79">
@@ -4264,8 +4253,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="3" t="s">
+    <row r="80" hidden="1" spans="1:12">
+      <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B80">
@@ -4286,7 +4275,7 @@
       <c r="G80">
         <v>0.630139064475348</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="1">
         <v>0.687173198482933</v>
       </c>
       <c r="I80">
@@ -4304,8 +4293,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="3" t="s">
+    <row r="81" hidden="1" spans="1:12">
+      <c r="A81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B81">
@@ -4326,7 +4315,7 @@
       <c r="G81">
         <v>0.219534342769366</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="1">
         <v>0.277173579109063</v>
       </c>
       <c r="I81">
@@ -4345,7 +4334,7 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B82">
@@ -4366,7 +4355,7 @@
       <c r="G82">
         <v>0.190474777448071</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="1">
         <v>0.796623145400593</v>
       </c>
       <c r="I82">
@@ -4384,8 +4373,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="3" t="s">
+    <row r="83" hidden="1" spans="1:12">
+      <c r="A83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B83">
@@ -4406,7 +4395,7 @@
       <c r="G83">
         <v>0.5354375</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="1">
         <v>0.681428571428571</v>
       </c>
       <c r="I83">
@@ -4424,8 +4413,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="3" t="s">
+    <row r="84" hidden="1" spans="1:12">
+      <c r="A84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B84">
@@ -4446,7 +4435,7 @@
       <c r="G84">
         <v>0.306538847117794</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="1">
         <v>0.390087719298246</v>
       </c>
       <c r="I84">
@@ -4464,8 +4453,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="3" t="s">
+    <row r="85" hidden="1" spans="1:12">
+      <c r="A85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B85">
@@ -4486,7 +4475,7 @@
       <c r="G85">
         <v>0.193720930232558</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="1">
         <v>0.245302325581395</v>
       </c>
       <c r="I85">
@@ -4504,8 +4493,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="3" t="s">
+    <row r="86" hidden="1" spans="1:12">
+      <c r="A86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B86">
@@ -4526,7 +4515,7 @@
       <c r="G86">
         <v>0.111210393964795</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="1">
         <v>0.145086336965633</v>
       </c>
       <c r="I86">
@@ -4544,8 +4533,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="3" t="s">
+    <row r="87" hidden="1" spans="1:12">
+      <c r="A87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B87">
@@ -4566,7 +4555,7 @@
       <c r="G87">
         <v>0.791179245283019</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="1">
         <v>0.817179245283019</v>
       </c>
       <c r="I87">
@@ -4584,8 +4573,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="3" t="s">
+    <row r="88" hidden="1" spans="1:12">
+      <c r="A88" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B88">
@@ -4606,7 +4595,7 @@
       <c r="G88">
         <v>0.158533864541833</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="1">
         <v>0.20966717744407</v>
       </c>
       <c r="I88">
@@ -4624,32 +4613,32 @@
         <v>sage</v>
       </c>
     </row>
-    <row r="89" spans="2:14">
-      <c r="B89" s="3" t="s">
+    <row r="89" hidden="1" spans="2:14">
+      <c r="B89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="I89" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K89" t="e" cm="1">
@@ -4660,10 +4649,10 @@
         <f t="array" ref="L89">INDEX($I$1:$J$1,MATCH(MAX(I89:J89),I89:J89,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N89" s="5"/>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="3" t="s">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" hidden="1" spans="1:12">
+      <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B90">
@@ -4684,7 +4673,7 @@
       <c r="G90">
         <v>0.147738277239019</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="1">
         <v>0.255900969766115</v>
       </c>
       <c r="I90">
@@ -4702,8 +4691,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="3" t="s">
+    <row r="91" hidden="1" spans="1:12">
+      <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B91">
@@ -4724,7 +4713,7 @@
       <c r="G91">
         <v>0.636091024020228</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="1">
         <v>0.699825537294564</v>
       </c>
       <c r="I91">
@@ -4742,8 +4731,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="3" t="s">
+    <row r="92" hidden="1" spans="1:12">
+      <c r="A92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B92">
@@ -4764,7 +4753,7 @@
       <c r="G92">
         <v>0.226908931314461</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="1">
         <v>0.287101601931095</v>
       </c>
       <c r="I92">
@@ -4783,7 +4772,7 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B93">
@@ -4804,7 +4793,7 @@
       <c r="G93">
         <v>0.190747774480712</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="1">
         <v>0.80566765578635</v>
       </c>
       <c r="I93">
@@ -4822,8 +4811,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="3" t="s">
+    <row r="94" hidden="1" spans="1:12">
+      <c r="A94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B94">
@@ -4844,7 +4833,7 @@
       <c r="G94">
         <v>0.550776785714286</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="1">
         <v>0.703875</v>
       </c>
       <c r="I94">
@@ -4862,8 +4851,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="3" t="s">
+    <row r="95" hidden="1" spans="1:12">
+      <c r="A95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B95">
@@ -4884,7 +4873,7 @@
       <c r="G95">
         <v>0.314051127819549</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95" s="1">
         <v>0.399024394319131</v>
       </c>
       <c r="I95">
@@ -4902,8 +4891,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="3" t="s">
+    <row r="96" hidden="1" spans="1:12">
+      <c r="A96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B96">
@@ -4924,7 +4913,7 @@
       <c r="G96">
         <v>0.194542635658915</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96" s="1">
         <v>0.248976744186047</v>
       </c>
       <c r="I96">
@@ -4942,8 +4931,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="3" t="s">
+    <row r="97" hidden="1" spans="1:12">
+      <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B97">
@@ -4964,7 +4953,7 @@
       <c r="G97">
         <v>0.118113998323554</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="1">
         <v>0.157101424979044</v>
       </c>
       <c r="I97">
@@ -4982,8 +4971,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="3" t="s">
+    <row r="98" hidden="1" spans="1:12">
+      <c r="A98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B98">
@@ -5004,7 +4993,7 @@
       <c r="G98">
         <v>0.81177358490566</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="1">
         <v>0.832292452830189</v>
       </c>
       <c r="I98">
@@ -5022,8 +5011,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="3" t="s">
+    <row r="99" hidden="1" spans="1:12">
+      <c r="A99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B99">
@@ -5044,7 +5033,7 @@
       <c r="G99">
         <v>0.170096230462764</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="1">
         <v>0.218361017468587</v>
       </c>
       <c r="I99">
@@ -5062,32 +5051,32 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="100" spans="2:14">
-      <c r="B100" s="3" t="s">
+    <row r="100" hidden="1" spans="2:14">
+      <c r="B100" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="I100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K100" t="e" cm="1">
@@ -5098,10 +5087,10 @@
         <f t="array" ref="L100">INDEX($I$1:$J$1,MATCH(MAX(I100:J100),I100:J100,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="N100" s="5"/>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="3" t="s">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" hidden="1" spans="1:12">
+      <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B101">
@@ -5122,7 +5111,7 @@
       <c r="G101">
         <v>0.154154249857387</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="1">
         <v>0.264050656018254</v>
       </c>
       <c r="I101">
@@ -5140,8 +5129,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="3" t="s">
+    <row r="102" hidden="1" spans="1:12">
+      <c r="A102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B102">
@@ -5162,7 +5151,7 @@
       <c r="G102">
         <v>0.645888748419722</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="1">
         <v>0.706128950695322</v>
       </c>
       <c r="I102">
@@ -5180,8 +5169,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="3" t="s">
+    <row r="103" hidden="1" spans="1:12">
+      <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B103">
@@ -5202,7 +5191,7 @@
       <c r="G103">
         <v>0.236658327847268</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="1">
         <v>0.294702216370419</v>
       </c>
       <c r="I103">
@@ -5221,7 +5210,7 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B104">
@@ -5242,7 +5231,7 @@
       <c r="G104">
         <v>0.190738872403561</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104" s="1">
         <v>0.824409495548961</v>
       </c>
       <c r="I104">
@@ -5260,8 +5249,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
-      <c r="A105" s="3" t="s">
+    <row r="105" hidden="1" spans="1:12">
+      <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B105">
@@ -5282,7 +5271,7 @@
       <c r="G105">
         <v>0.557794642857143</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105" s="1">
         <v>0.742482142857143</v>
       </c>
       <c r="I105">
@@ -5300,8 +5289,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
-      <c r="A106" s="3" t="s">
+    <row r="106" hidden="1" spans="1:12">
+      <c r="A106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B106">
@@ -5322,7 +5311,7 @@
       <c r="G106">
         <v>0.323704594820384</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="1">
         <v>0.407214202172097</v>
       </c>
       <c r="I106">
@@ -5340,8 +5329,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
-      <c r="A107" s="3" t="s">
+    <row r="107" hidden="1" spans="1:12">
+      <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B107">
@@ -5362,7 +5351,7 @@
       <c r="G107">
         <v>0.198728682170543</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107" s="1">
         <v>0.260496124031008</v>
       </c>
       <c r="I107">
@@ -5380,8 +5369,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
-      <c r="A108" s="3" t="s">
+    <row r="108" hidden="1" spans="1:12">
+      <c r="A108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B108">
@@ -5402,7 +5391,7 @@
       <c r="G108">
         <v>0.122938809723386</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="1">
         <v>0.169731768650461</v>
       </c>
       <c r="I108">
@@ -5420,8 +5409,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
-      <c r="A109" s="3" t="s">
+    <row r="109" hidden="1" spans="1:12">
+      <c r="A109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B109">
@@ -5442,7 +5431,7 @@
       <c r="G109">
         <v>0.821764150943396</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109" s="1">
         <v>0.855084905660377</v>
       </c>
       <c r="I109">
@@ -5460,8 +5449,8 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
-      <c r="A110" s="3" t="s">
+    <row r="110" hidden="1" spans="1:12">
+      <c r="A110" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B110">
@@ -5482,7 +5471,7 @@
       <c r="G110">
         <v>0.18448728164266</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="1">
         <v>0.22818633159669</v>
       </c>
       <c r="I110">
@@ -5500,7 +5489,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="111" spans="11:12">
+    <row r="111" hidden="1" spans="11:12">
       <c r="K111">
         <f>COUNTIF(K2:K110,"MGNN-AL")</f>
         <v>84</v>
@@ -5512,6 +5501,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A111" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="cKM-Physicians-Innovation_multiplex.edges"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/INF_4.5b(0.01-0.1)_0.01-0.1_.xlsx
+++ b/INF_4.5b(0.01-0.1)_0.01-0.1_.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -745,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,6 +754,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -813,6 +814,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1099,11 +1107,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:H$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1147,7 +1155,7 @@
       </c>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" hidden="1" spans="1:12">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1187,7 +1195,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:12">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:12">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1307,7 +1315,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:12">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1347,7 +1355,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:12">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1387,7 +1395,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:12">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1427,7 +1435,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:12">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:12">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1507,7 +1515,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:12">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>sage</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="2:14">
+    <row r="12" spans="2:14">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1593,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" hidden="1" spans="1:12">
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1633,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:12">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1665,7 +1673,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:12">
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1745,7 +1753,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:12">
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -1785,7 +1793,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:12">
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1825,7 +1833,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:12">
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1865,7 +1873,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:12">
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1905,7 +1913,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:12">
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1945,7 +1953,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:12">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1985,7 +1993,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="2:14">
+    <row r="23" spans="2:14">
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2031,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" hidden="1" spans="1:12">
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2063,7 +2071,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:12">
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2111,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:12">
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -2183,7 +2191,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:12">
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -2223,7 +2231,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:12">
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -2263,7 +2271,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:12">
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -2303,7 +2311,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:12">
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -2343,7 +2351,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:12">
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -2383,7 +2391,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:12">
+    <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="2:14">
+    <row r="34" spans="2:14">
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
@@ -2461,7 +2469,7 @@
       </c>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" hidden="1" spans="1:12">
+    <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2509,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:12">
+    <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
@@ -2541,7 +2549,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:12">
+    <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -2603,7 +2611,7 @@
       <c r="G38">
         <v>0.186724035608309</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="4">
         <v>0.567326409495549</v>
       </c>
       <c r="I38">
@@ -2621,7 +2629,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:12">
+    <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
@@ -2661,7 +2669,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:12">
+    <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -2701,7 +2709,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:12">
+    <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
@@ -2741,7 +2749,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:12">
+    <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2781,7 +2789,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:12">
+    <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
@@ -2821,7 +2829,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:12">
+    <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -2861,7 +2869,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="2:14">
+    <row r="45" spans="2:14">
       <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
@@ -2899,7 +2907,7 @@
       </c>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" hidden="1" spans="1:12">
+    <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -2939,7 +2947,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:12">
+    <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -2979,7 +2987,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:12">
+    <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
         <v>11</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:12">
+    <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
         <v>13</v>
       </c>
@@ -3099,7 +3107,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:12">
+    <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
@@ -3139,7 +3147,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:12">
+    <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
@@ -3179,7 +3187,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:12">
+    <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
@@ -3219,7 +3227,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:12">
+    <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
@@ -3259,7 +3267,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:12">
+    <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
@@ -3299,7 +3307,7 @@
         <v>sage</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="2:14">
+    <row r="56" spans="2:14">
       <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
@@ -3337,7 +3345,7 @@
       </c>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" hidden="1" spans="1:12">
+    <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -3377,7 +3385,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:12">
+    <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
@@ -3417,7 +3425,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:12">
+    <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
@@ -3479,7 +3487,7 @@
       <c r="G60">
         <v>0.190376854599407</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="4">
         <v>0.682661721068249</v>
       </c>
       <c r="I60">
@@ -3497,7 +3505,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:12">
+    <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
@@ -3537,7 +3545,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:12">
+    <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
         <v>14</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:12">
+    <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
         <v>15</v>
       </c>
@@ -3617,7 +3625,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:12">
+    <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -3657,7 +3665,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:12">
+    <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
         <v>17</v>
       </c>
@@ -3697,7 +3705,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:12">
+    <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
@@ -3737,7 +3745,7 @@
         <v>sage</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="2:14">
+    <row r="67" spans="2:14">
       <c r="B67" s="2" t="s">
         <v>0</v>
       </c>
@@ -3775,7 +3783,7 @@
       </c>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" hidden="1" spans="1:12">
+    <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -3815,7 +3823,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:12">
+    <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
         <v>10</v>
       </c>
@@ -3855,7 +3863,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:12">
+    <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
         <v>11</v>
       </c>
@@ -3935,7 +3943,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:12">
+    <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
         <v>13</v>
       </c>
@@ -3975,7 +3983,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:12">
+    <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
         <v>14</v>
       </c>
@@ -4015,7 +4023,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:12">
+    <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
         <v>15</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:12">
+    <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
         <v>16</v>
       </c>
@@ -4095,7 +4103,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:12">
+    <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
         <v>17</v>
       </c>
@@ -4135,7 +4143,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:12">
+    <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
         <v>18</v>
       </c>
@@ -4175,7 +4183,7 @@
         <v>sage</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="2:14">
+    <row r="78" spans="2:14">
       <c r="B78" s="2" t="s">
         <v>0</v>
       </c>
@@ -4213,7 +4221,7 @@
       </c>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" hidden="1" spans="1:12">
+    <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
@@ -4253,7 +4261,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:12">
+    <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
@@ -4293,7 +4301,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:12">
+    <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
         <v>11</v>
       </c>
@@ -4349,7 +4357,7 @@
       <c r="E82">
         <v>0.767709198813056</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="4">
         <v>0.190364985163205</v>
       </c>
       <c r="G82">
@@ -4373,7 +4381,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:12">
+    <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
         <v>13</v>
       </c>
@@ -4413,7 +4421,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:12">
+    <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
         <v>14</v>
       </c>
@@ -4453,7 +4461,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:12">
+    <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
         <v>15</v>
       </c>
@@ -4493,7 +4501,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:12">
+    <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
         <v>16</v>
       </c>
@@ -4533,7 +4541,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:12">
+    <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
         <v>17</v>
       </c>
@@ -4573,7 +4581,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:12">
+    <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
         <v>18</v>
       </c>
@@ -4613,7 +4621,7 @@
         <v>sage</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="2:14">
+    <row r="89" spans="2:14">
       <c r="B89" s="2" t="s">
         <v>0</v>
       </c>
@@ -4651,7 +4659,7 @@
       </c>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" hidden="1" spans="1:12">
+    <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -4691,7 +4699,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:12">
+    <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -4731,7 +4739,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:12">
+    <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
         <v>11</v>
       </c>
@@ -4811,7 +4819,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:12">
+    <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
         <v>13</v>
       </c>
@@ -4851,7 +4859,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:12">
+    <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
         <v>14</v>
       </c>
@@ -4891,7 +4899,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:12">
+    <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
         <v>15</v>
       </c>
@@ -4931,7 +4939,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:12">
+    <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
@@ -4971,7 +4979,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:12">
+    <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
         <v>17</v>
       </c>
@@ -5011,7 +5019,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:12">
+    <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
         <v>18</v>
       </c>
@@ -5051,7 +5059,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="2:14">
+    <row r="100" spans="2:14">
       <c r="B100" s="2" t="s">
         <v>0</v>
       </c>
@@ -5089,7 +5097,7 @@
       </c>
       <c r="N100" s="3"/>
     </row>
-    <row r="101" hidden="1" spans="1:12">
+    <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -5129,7 +5137,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:12">
+    <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
         <v>10</v>
       </c>
@@ -5169,7 +5177,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:12">
+    <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
@@ -5249,7 +5257,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:12">
+    <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
@@ -5289,7 +5297,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:12">
+    <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
         <v>14</v>
       </c>
@@ -5329,7 +5337,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:12">
+    <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
@@ -5369,7 +5377,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:12">
+    <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
         <v>16</v>
       </c>
@@ -5409,7 +5417,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:12">
+    <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
         <v>17</v>
       </c>
@@ -5449,7 +5457,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:12">
+    <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
         <v>18</v>
       </c>
@@ -5489,7 +5497,7 @@
         <v>pre</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="11:12">
+    <row r="111" spans="11:12">
       <c r="K111">
         <f>COUNTIF(K2:K110,"MGNN-AL")</f>
         <v>84</v>
@@ -5501,11 +5509,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A111" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="cKM-Physicians-Innovation_multiplex.edges"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
